--- a/LUSID Excel - Maintain a product in multiple currencies and share classes.xlsx
+++ b/LUSID Excel - Maintain a product in multiple currencies and share classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828BC380-FC79-4BA1-8E4B-C22AB66CB8BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C03C62F-A105-469B-B192-8400BED424AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" activeTab="3" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="1695" yWindow="1050" windowWidth="24825" windowHeight="11250" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="14" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="474">
   <si>
     <t>Code</t>
   </si>
@@ -1285,9 +1285,6 @@
     <t>Instrument</t>
   </si>
   <si>
-    <t>TimeVariant</t>
-  </si>
-  <si>
     <t>Perpetual</t>
   </si>
   <si>
@@ -1346,9 +1343,6 @@
   </si>
   <si>
     <t>UK_High_Growth_Equities_Fund:UKHGE_base_fund</t>
-  </si>
-  <si>
-    <t>total_circulation1</t>
   </si>
   <si>
     <t>Holding/default/SubHoldingKey:Value,Instrument/default/Name:Value,Holding/default/Units:Sum,Holding/default/Cost:Sum,Holding/default/PV:Sum</t>
@@ -2029,13 +2023,13 @@
     <xf numFmtId="4" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2059,6 +2053,335 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="rtdsrv.80d02c55f2694ff2a6ca43a30ce889e0">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>01d16cbc-b204-424b-aced-e680b844659c</stp>
+        <tr r="H40" s="24"/>
+        <tr r="I40" s="24"/>
+        <tr r="G34" s="24"/>
+        <tr r="I38" s="24"/>
+        <tr r="I35" s="24"/>
+        <tr r="G42" s="24"/>
+        <tr r="H35" s="24"/>
+        <tr r="H33" s="24"/>
+        <tr r="H37" s="24"/>
+        <tr r="I33" s="24"/>
+        <tr r="G43" s="24"/>
+        <tr r="G36" s="24"/>
+        <tr r="F37" s="24"/>
+        <tr r="H39" s="24"/>
+        <tr r="E41" s="24"/>
+        <tr r="F44" s="24"/>
+        <tr r="F43" s="24"/>
+        <tr r="I44" s="24"/>
+        <tr r="H42" s="24"/>
+        <tr r="I36" s="24"/>
+        <tr r="I34" s="24"/>
+        <tr r="G40" s="24"/>
+        <tr r="H34" s="24"/>
+        <tr r="H41" s="24"/>
+        <tr r="I41" s="24"/>
+        <tr r="H44" s="24"/>
+        <tr r="F42" s="24"/>
+        <tr r="H38" s="24"/>
+        <tr r="G37" s="24"/>
+        <tr r="H36" s="24"/>
+        <tr r="E38" s="24"/>
+        <tr r="E44" s="24"/>
+        <tr r="G35" s="24"/>
+        <tr r="I43" s="24"/>
+        <tr r="E43" s="24"/>
+        <tr r="F41" s="24"/>
+        <tr r="G33" s="24"/>
+        <tr r="F35" s="24"/>
+        <tr r="I42" s="24"/>
+        <tr r="E33" s="24"/>
+        <tr r="I39" s="24"/>
+        <tr r="E40" s="24"/>
+        <tr r="F33" s="24"/>
+        <tr r="E34" s="24"/>
+        <tr r="H43" s="24"/>
+        <tr r="E39" s="24"/>
+        <tr r="E35" s="24"/>
+        <tr r="I37" s="24"/>
+        <tr r="G41" s="24"/>
+        <tr r="F40" s="24"/>
+        <tr r="E37" s="24"/>
+        <tr r="F38" s="24"/>
+        <tr r="F34" s="24"/>
+        <tr r="E36" s="24"/>
+        <tr r="G39" s="24"/>
+        <tr r="F39" s="24"/>
+        <tr r="E42" s="24"/>
+        <tr r="G38" s="24"/>
+        <tr r="G44" s="24"/>
+        <tr r="F36" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.80d02c55f2694ff2a6ca43a30ce889e0">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>734827e9-ae6e-4fe3-a68f-207dc65ce9c2</stp>
+        <tr r="F56" s="16"/>
+        <tr r="E53" s="16"/>
+        <tr r="I55" s="16"/>
+        <tr r="K58" s="16"/>
+        <tr r="H59" s="16"/>
+        <tr r="J59" s="16"/>
+        <tr r="K60" s="16"/>
+        <tr r="E57" s="16"/>
+        <tr r="L57" s="16"/>
+        <tr r="E60" s="16"/>
+        <tr r="G59" s="16"/>
+        <tr r="J58" s="16"/>
+        <tr r="K61" s="16"/>
+        <tr r="F62" s="16"/>
+        <tr r="I60" s="16"/>
+        <tr r="K55" s="16"/>
+        <tr r="J52" s="16"/>
+        <tr r="K59" s="16"/>
+        <tr r="I53" s="16"/>
+        <tr r="J54" s="16"/>
+        <tr r="J53" s="16"/>
+        <tr r="H58" s="16"/>
+        <tr r="H52" s="16"/>
+        <tr r="F58" s="16"/>
+        <tr r="H60" s="16"/>
+        <tr r="L53" s="16"/>
+        <tr r="E58" s="16"/>
+        <tr r="F57" s="16"/>
+        <tr r="J55" s="16"/>
+        <tr r="E54" s="16"/>
+        <tr r="E59" s="16"/>
+        <tr r="G52" s="16"/>
+        <tr r="G55" s="16"/>
+        <tr r="I58" s="16"/>
+        <tr r="G58" s="16"/>
+        <tr r="H57" s="16"/>
+        <tr r="I62" s="16"/>
+        <tr r="G57" s="16"/>
+        <tr r="K57" s="16"/>
+        <tr r="F52" s="16"/>
+        <tr r="L58" s="16"/>
+        <tr r="G54" s="16"/>
+        <tr r="G53" s="16"/>
+        <tr r="H55" s="16"/>
+        <tr r="J62" s="16"/>
+        <tr r="E62" s="16"/>
+        <tr r="E52" s="16"/>
+        <tr r="K62" s="16"/>
+        <tr r="F55" s="16"/>
+        <tr r="I57" s="16"/>
+        <tr r="F59" s="16"/>
+        <tr r="H56" s="16"/>
+        <tr r="E55" s="16"/>
+        <tr r="K56" s="16"/>
+        <tr r="L61" s="16"/>
+        <tr r="I56" s="16"/>
+        <tr r="I52" s="16"/>
+        <tr r="H54" s="16"/>
+        <tr r="J57" s="16"/>
+        <tr r="I54" s="16"/>
+        <tr r="L62" s="16"/>
+        <tr r="I59" s="16"/>
+        <tr r="K54" s="16"/>
+        <tr r="I61" s="16"/>
+        <tr r="K52" s="16"/>
+        <tr r="L60" s="16"/>
+        <tr r="F61" s="16"/>
+        <tr r="L56" s="16"/>
+        <tr r="L54" s="16"/>
+        <tr r="H61" s="16"/>
+        <tr r="F53" s="16"/>
+        <tr r="L59" s="16"/>
+        <tr r="J56" s="16"/>
+        <tr r="G60" s="16"/>
+        <tr r="K53" s="16"/>
+        <tr r="L52" s="16"/>
+        <tr r="E61" s="16"/>
+        <tr r="H62" s="16"/>
+        <tr r="G61" s="16"/>
+        <tr r="H53" s="16"/>
+        <tr r="G56" s="16"/>
+        <tr r="J61" s="16"/>
+        <tr r="E56" s="16"/>
+        <tr r="F54" s="16"/>
+        <tr r="L55" s="16"/>
+        <tr r="G62" s="16"/>
+        <tr r="F60" s="16"/>
+        <tr r="J60" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.80d02c55f2694ff2a6ca43a30ce889e0">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>dd63dab0-b33d-46c7-9379-ac5e33152b0e</stp>
+        <tr r="I37" s="20"/>
+        <tr r="F40" s="20"/>
+        <tr r="F34" s="20"/>
+        <tr r="H41" s="20"/>
+        <tr r="E34" s="20"/>
+        <tr r="E41" s="20"/>
+        <tr r="G36" s="20"/>
+        <tr r="F37" s="20"/>
+        <tr r="I42" s="20"/>
+        <tr r="G35" s="20"/>
+        <tr r="E38" s="20"/>
+        <tr r="E43" s="20"/>
+        <tr r="F42" s="20"/>
+        <tr r="H40" s="20"/>
+        <tr r="I35" s="20"/>
+        <tr r="F38" s="20"/>
+        <tr r="F45" s="20"/>
+        <tr r="E35" s="20"/>
+        <tr r="I38" s="20"/>
+        <tr r="H34" s="20"/>
+        <tr r="I36" s="20"/>
+        <tr r="F43" s="20"/>
+        <tr r="F41" s="20"/>
+        <tr r="G39" s="20"/>
+        <tr r="G43" s="20"/>
+        <tr r="H43" s="20"/>
+        <tr r="H38" s="20"/>
+        <tr r="G38" s="20"/>
+        <tr r="I44" s="20"/>
+        <tr r="E40" s="20"/>
+        <tr r="H44" s="20"/>
+        <tr r="I43" s="20"/>
+        <tr r="G44" s="20"/>
+        <tr r="I41" s="20"/>
+        <tr r="H45" s="20"/>
+        <tr r="G34" s="20"/>
+        <tr r="H39" s="20"/>
+        <tr r="H37" s="20"/>
+        <tr r="E42" s="20"/>
+        <tr r="F35" s="20"/>
+        <tr r="G42" s="20"/>
+        <tr r="E39" s="20"/>
+        <tr r="G45" s="20"/>
+        <tr r="E44" s="20"/>
+        <tr r="G37" s="20"/>
+        <tr r="I34" s="20"/>
+        <tr r="F44" s="20"/>
+        <tr r="H36" s="20"/>
+        <tr r="E45" s="20"/>
+        <tr r="I39" s="20"/>
+        <tr r="F39" s="20"/>
+        <tr r="G40" s="20"/>
+        <tr r="I45" s="20"/>
+        <tr r="I40" s="20"/>
+        <tr r="G41" s="20"/>
+        <tr r="H35" s="20"/>
+        <tr r="E36" s="20"/>
+        <tr r="H42" s="20"/>
+        <tr r="E37" s="20"/>
+        <tr r="F36" s="20"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>70fbe34c-3155-4847-890f-52016bbe5273</stp>
+        <tr r="H73" s="16"/>
+        <tr r="I72" s="16"/>
+        <tr r="E72" s="16"/>
+        <tr r="L79" s="16"/>
+        <tr r="F72" s="16"/>
+        <tr r="G73" s="16"/>
+        <tr r="L80" s="16"/>
+        <tr r="L81" s="16"/>
+        <tr r="I75" s="16"/>
+        <tr r="F73" s="16"/>
+        <tr r="G71" s="16"/>
+        <tr r="G75" s="16"/>
+        <tr r="H78" s="16"/>
+        <tr r="I74" s="16"/>
+        <tr r="J80" s="16"/>
+        <tr r="J74" s="16"/>
+        <tr r="E74" s="16"/>
+        <tr r="E81" s="16"/>
+        <tr r="L77" s="16"/>
+        <tr r="H80" s="16"/>
+        <tr r="H81" s="16"/>
+        <tr r="E79" s="16"/>
+        <tr r="H75" s="16"/>
+        <tr r="L76" s="16"/>
+        <tr r="K80" s="16"/>
+        <tr r="K72" s="16"/>
+        <tr r="G77" s="16"/>
+        <tr r="H74" s="16"/>
+        <tr r="F74" s="16"/>
+        <tr r="L74" s="16"/>
+        <tr r="F76" s="16"/>
+        <tr r="G81" s="16"/>
+        <tr r="H72" s="16"/>
+        <tr r="H77" s="16"/>
+        <tr r="I78" s="16"/>
+        <tr r="E80" s="16"/>
+        <tr r="K76" s="16"/>
+        <tr r="F78" s="16"/>
+        <tr r="I71" s="16"/>
+        <tr r="F81" s="16"/>
+        <tr r="J76" s="16"/>
+        <tr r="H76" s="16"/>
+        <tr r="E76" s="16"/>
+        <tr r="I81" s="16"/>
+        <tr r="J77" s="16"/>
+        <tr r="G72" s="16"/>
+        <tr r="I77" s="16"/>
+        <tr r="E77" s="16"/>
+        <tr r="J71" s="16"/>
+        <tr r="L75" s="16"/>
+        <tr r="G74" s="16"/>
+        <tr r="G80" s="16"/>
+        <tr r="F79" s="16"/>
+        <tr r="L78" s="16"/>
+        <tr r="K77" s="16"/>
+        <tr r="L71" s="16"/>
+        <tr r="E71" s="16"/>
+        <tr r="I79" s="16"/>
+        <tr r="G79" s="16"/>
+        <tr r="I80" s="16"/>
+        <tr r="H79" s="16"/>
+        <tr r="K79" s="16"/>
+        <tr r="J72" s="16"/>
+        <tr r="K78" s="16"/>
+        <tr r="L73" s="16"/>
+        <tr r="K81" s="16"/>
+        <tr r="E78" s="16"/>
+        <tr r="K75" s="16"/>
+        <tr r="J81" s="16"/>
+        <tr r="J78" s="16"/>
+        <tr r="J73" s="16"/>
+        <tr r="F80" s="16"/>
+        <tr r="I73" s="16"/>
+        <tr r="L72" s="16"/>
+        <tr r="F75" s="16"/>
+        <tr r="K73" s="16"/>
+        <tr r="E73" s="16"/>
+        <tr r="F71" s="16"/>
+        <tr r="G76" s="16"/>
+        <tr r="E75" s="16"/>
+        <tr r="K74" s="16"/>
+        <tr r="J79" s="16"/>
+        <tr r="K71" s="16"/>
+        <tr r="G78" s="16"/>
+        <tr r="F77" s="16"/>
+        <tr r="J75" s="16"/>
+        <tr r="H71" s="16"/>
+        <tr r="I76" s="16"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3322,9 +3645,7 @@
   </sheetPr>
   <dimension ref="B1:O48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4024,7 +4345,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="54" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
@@ -4037,7 +4358,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -4132,7 +4453,7 @@
       </c>
       <c r="F22" s="89">
         <f ca="1">NOW()-4</f>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="2"/>
@@ -4237,13 +4558,13 @@
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H26" s="109" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>371</v>
@@ -4257,13 +4578,13 @@
       </c>
       <c r="M26" s="87">
         <f ca="1">$F$22</f>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="N26" s="50"/>
       <c r="O26" s="50"/>
       <c r="P26" s="50" t="str">
         <f ca="1">_xll.flQuotesAdd(F20,E25:O33)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Added 8 quote(s) as at time 2020-01-07 09:21:42Z</v>
       </c>
       <c r="Q26" s="2"/>
     </row>
@@ -4278,13 +4599,13 @@
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="H27" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="H27" s="38" t="s">
-        <v>461</v>
-      </c>
       <c r="I27" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>371</v>
@@ -4298,7 +4619,7 @@
       </c>
       <c r="M27" s="87">
         <f t="shared" ref="M27:M33" ca="1" si="1">$F$22</f>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="N27" s="43"/>
       <c r="O27" s="43"/>
@@ -4316,13 +4637,13 @@
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H28" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>462</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>464</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>371</v>
@@ -4336,7 +4657,7 @@
       </c>
       <c r="M28" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="N28" s="43"/>
       <c r="O28" s="43"/>
@@ -4354,13 +4675,13 @@
       </c>
       <c r="F29" s="58"/>
       <c r="G29" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>371</v>
@@ -4374,7 +4695,7 @@
       </c>
       <c r="M29" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="N29" s="87"/>
       <c r="O29" s="87"/>
@@ -4392,13 +4713,13 @@
       </c>
       <c r="F30" s="58"/>
       <c r="G30" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>371</v>
@@ -4412,7 +4733,7 @@
       </c>
       <c r="M30" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="N30" s="34"/>
       <c r="O30" s="34"/>
@@ -4430,13 +4751,13 @@
       </c>
       <c r="F31" s="58"/>
       <c r="G31" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J31" s="21" t="s">
         <v>371</v>
@@ -4450,7 +4771,7 @@
       </c>
       <c r="M31" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="N31" s="34"/>
       <c r="O31" s="34"/>
@@ -4468,13 +4789,13 @@
       </c>
       <c r="F32" s="58"/>
       <c r="G32" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J32" s="21" t="s">
         <v>371</v>
@@ -4488,7 +4809,7 @@
       </c>
       <c r="M32" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="N32" s="34"/>
       <c r="O32" s="34"/>
@@ -4506,13 +4827,13 @@
       </c>
       <c r="F33" s="58"/>
       <c r="G33" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J33" s="21" t="s">
         <v>371</v>
@@ -4526,7 +4847,7 @@
       </c>
       <c r="M33" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="N33" s="34"/>
       <c r="O33" s="34"/>
@@ -4796,7 +5117,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="53" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
@@ -4808,7 +5129,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="53" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -4834,12 +5155,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="54" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
       <c r="K17" s="42" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L17" s="11"/>
     </row>
@@ -4851,7 +5172,7 @@
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
       <c r="K18" s="42" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L18" s="2"/>
     </row>
@@ -4860,7 +5181,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="55" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F19" s="55">
         <f>'Securitising base fund'!G50/COUNTA('Create foreign ccy portfolios'!I29:I33)</f>
@@ -4868,7 +5189,7 @@
       </c>
       <c r="G19" s="55"/>
       <c r="H19" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -4881,15 +5202,15 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="55" t="s">
-        <v>475</v>
-      </c>
-      <c r="F20" s="112" t="e">
+        <v>473</v>
+      </c>
+      <c r="F20" s="110">
         <f ca="1">'Unit price calc'!E34/COUNTA('Create foreign ccy portfolios'!I29:I33)</f>
-        <v>#VALUE!</v>
+        <v>8621901.5739999991</v>
       </c>
       <c r="G20" s="55"/>
       <c r="H20" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -4909,7 +5230,7 @@
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -4925,7 +5246,7 @@
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -4941,11 +5262,11 @@
         <v>186</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -4976,7 +5297,7 @@
       </c>
       <c r="F25" s="74">
         <f ca="1">NOW()-4</f>
-        <v>43808.419566087963</v>
+        <v>43833.390075462965</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>358</v>
@@ -5286,7 +5607,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="11" t="str">
         <f ca="1">_xll.flHoldingsAdjust(F21,F23,F25,E28:M38)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Holdings set for portfolio code AUD_UKHGE_base_fund</v>
       </c>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
@@ -6098,11 +6419,11 @@
       </c>
       <c r="L28" s="40">
         <f ca="1">NOW()-2</f>
-        <v>43810.419596527776</v>
+        <v>43835.390095023147</v>
       </c>
       <c r="M28" s="49" t="str">
         <f ca="1">_xll.flPortfoliosAddDerived(F24,E27:L28)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Portfolio with id Pension-fund in scope Production-client effective 2020-01-05T09:21:44.2100000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="N28" s="2"/>
     </row>
@@ -6433,7 +6754,7 @@
       </c>
       <c r="I50" s="75">
         <f ca="1">'Create scope and portfolio'!H29</f>
-        <v>43447.419596180553</v>
+        <v>43472.390093518516</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -6465,36 +6786,36 @@
       <c r="C52" s="2"/>
       <c r="D52" s="55"/>
       <c r="E52" s="9" t="str">
-        <f t="array" aca="1" ref="E52:L62" ca="1">_xll.flHoldingsGet(F50,F51,I50)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <f t="array" ref="E52:L62" ca="1">_xll.flHoldingsGet(F50,F51,I50)</f>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F52" s="9" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G52" s="7" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H52" s="6" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I52" s="9" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J52" s="9" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K52" s="6" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L52" s="6" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6507,35 +6828,35 @@
       </c>
       <c r="E53" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F53" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G53" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H53" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I53" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J53" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K53" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L53" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6548,35 +6869,35 @@
       </c>
       <c r="E54" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F54" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G54" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H54" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I54" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J54" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K54" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L54" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6589,35 +6910,35 @@
       </c>
       <c r="E55" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F55" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G55" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H55" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I55" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J55" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K55" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L55" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6630,35 +6951,35 @@
       </c>
       <c r="E56" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F56" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G56" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H56" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I56" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J56" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K56" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L56" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6671,35 +6992,35 @@
       </c>
       <c r="E57" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F57" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G57" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H57" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I57" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J57" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K57" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L57" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6712,35 +7033,35 @@
       </c>
       <c r="E58" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F58" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G58" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H58" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I58" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J58" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K58" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L58" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6753,35 +7074,35 @@
       </c>
       <c r="E59" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F59" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G59" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H59" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I59" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J59" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K59" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L59" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6794,35 +7115,35 @@
       </c>
       <c r="E60" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F60" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G60" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H60" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I60" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J60" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K60" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L60" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6835,35 +7156,35 @@
       </c>
       <c r="E61" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F61" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G61" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H61" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I61" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J61" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K61" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L61" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -6876,35 +7197,35 @@
       </c>
       <c r="E62" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F62" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G62" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H62" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I62" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J62" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K62" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L62" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7001,7 +7322,7 @@
       </c>
       <c r="I69" s="75">
         <f ca="1">I50</f>
-        <v>43447.419596180553</v>
+        <v>43472.390093518516</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -7033,36 +7354,36 @@
       <c r="C71" s="2"/>
       <c r="D71" s="55"/>
       <c r="E71" s="9" t="str">
-        <f t="array" aca="1" ref="E71:L81" ca="1">_xll.flHoldingsGet(F69,F70,I69)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <f t="array" ref="E71:L81" ca="1">_xll.flHoldingsGet(F69,F70,I69)</f>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F71" s="9" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G71" s="7" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H71" s="6" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I71" s="9" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J71" s="9" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K71" s="6" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L71" s="6" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -7075,35 +7396,35 @@
       </c>
       <c r="E72" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F72" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G72" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H72" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I72" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J72" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K72" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L72" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -7116,35 +7437,35 @@
       </c>
       <c r="E73" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F73" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G73" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H73" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I73" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J73" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K73" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L73" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -7157,35 +7478,35 @@
       </c>
       <c r="E74" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F74" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G74" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H74" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I74" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J74" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K74" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L74" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -7198,35 +7519,35 @@
       </c>
       <c r="E75" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F75" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G75" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H75" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I75" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J75" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K75" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L75" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -7239,35 +7560,35 @@
       </c>
       <c r="E76" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F76" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G76" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H76" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I76" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J76" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K76" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L76" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -7280,35 +7601,35 @@
       </c>
       <c r="E77" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F77" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G77" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H77" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I77" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J77" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K77" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L77" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -7321,35 +7642,35 @@
       </c>
       <c r="E78" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F78" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G78" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H78" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I78" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J78" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K78" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L78" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -7362,35 +7683,35 @@
       </c>
       <c r="E79" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F79" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G79" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H79" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I79" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J79" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K79" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L79" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -7403,35 +7724,35 @@
       </c>
       <c r="E80" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F80" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G80" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H80" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I80" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J80" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K80" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L80" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -7444,35 +7765,35 @@
       </c>
       <c r="E81" s="59" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F81" s="58" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="G81" s="76" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="H81" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="I81" s="77" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="J81" s="33" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="K81" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="L81" s="26" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2019-01-07T09:21:44.0800000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9054,7 +9375,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="24">
         <f ca="1">NOW()-1</f>
-        <v>43811.419596527776</v>
+        <v>43836.390095023147</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -9099,7 +9420,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="24">
         <f ca="1">NOW()+1</f>
-        <v>43813.419596527776</v>
+        <v>43838.390095023147</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -9195,11 +9516,11 @@
       </c>
       <c r="I28" s="39">
         <f ca="1">I23</f>
-        <v>43811.419596527776</v>
+        <v>43836.390095023147</v>
       </c>
       <c r="J28" s="39">
         <f ca="1">I25</f>
-        <v>43813.419596527776</v>
+        <v>43838.390095023147</v>
       </c>
       <c r="K28" s="27">
         <v>410000</v>
@@ -9241,11 +9562,11 @@
       </c>
       <c r="I29" s="39">
         <f ca="1">I28</f>
-        <v>43811.419596527776</v>
+        <v>43836.390095023147</v>
       </c>
       <c r="J29" s="39">
         <f ca="1">J28</f>
-        <v>43813.419596527776</v>
+        <v>43838.390095023147</v>
       </c>
       <c r="K29" s="27">
         <v>2879200</v>
@@ -9287,11 +9608,11 @@
       </c>
       <c r="I30" s="39">
         <f ca="1">I29</f>
-        <v>43811.419596527776</v>
+        <v>43836.390095023147</v>
       </c>
       <c r="J30" s="39">
         <f ca="1">J29</f>
-        <v>43813.419596527776</v>
+        <v>43838.390095023147</v>
       </c>
       <c r="K30" s="27">
         <v>669180</v>
@@ -9485,7 +9806,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="19" t="str">
         <f ca="1">_xll.flTransactionsAdd(F23,F25,E27:Q30)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Production-client effective 2020-01-06T09:21:44.2100000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F39" s="55"/>
       <c r="G39" s="55"/>
@@ -20176,7 +20497,7 @@
       <c r="H26" s="55"/>
       <c r="I26" s="62">
         <f ca="1">NOW()-65/1440</f>
-        <v>43812.374457407408</v>
+        <v>43837.344955208333</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -20221,7 +20542,7 @@
       <c r="H28" s="55"/>
       <c r="I28" s="64">
         <f ca="1">I26+2</f>
-        <v>43814.374457407408</v>
+        <v>43839.344955208333</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -20318,11 +20639,11 @@
       </c>
       <c r="I31" s="65">
         <f ca="1">I26</f>
-        <v>43812.374457407408</v>
+        <v>43837.344955208333</v>
       </c>
       <c r="J31" s="39">
         <f ca="1">I28</f>
-        <v>43814.374457407408</v>
+        <v>43839.344955208333</v>
       </c>
       <c r="K31" s="27">
         <v>150000000</v>
@@ -20365,11 +20686,11 @@
       </c>
       <c r="I32" s="65">
         <f ca="1">I31</f>
-        <v>43812.374457407408</v>
+        <v>43837.344955208333</v>
       </c>
       <c r="J32" s="39">
         <f ca="1">J31</f>
-        <v>43814.374457407408</v>
+        <v>43839.344955208333</v>
       </c>
       <c r="K32" s="27">
         <v>120000000</v>
@@ -20584,7 +20905,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="51" t="str">
         <f ca="1">_xll.flTransactionsAdd(F26,F28,E30:Q34)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>#ERROR: Portfolio with id Pension-fund in scope Test-client effective 2020-01-07T08:16:44.1300000+00:00, AsAt=2020-01-07T09:21:43.5364140+00:00 does not exist.</v>
       </c>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
@@ -25715,7 +26036,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -26192,14 +26513,14 @@
         <v>345</v>
       </c>
       <c r="F29" s="58" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G29" s="59" t="s">
         <v>357</v>
       </c>
       <c r="H29" s="74">
         <f ca="1">NOW()-365</f>
-        <v>43447.419596180553</v>
+        <v>43472.390093518516</v>
       </c>
       <c r="I29" s="59" t="s">
         <v>8</v>
@@ -26211,7 +26532,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15" t="str">
         <f ca="1">_xll.flPortfoliosAdd(F25,E28:L29)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Entity already exists</v>
       </c>
       <c r="N29" s="17"/>
     </row>
@@ -26495,7 +26816,7 @@
   <dimension ref="B1:Y74"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26828,7 +27149,7 @@
       <c r="J24" s="43"/>
       <c r="K24" s="43" t="str">
         <f t="array" ref="K24:K32">_xll.flInstrumentsAdd(E23:J32)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_FVL71B1S</v>
       </c>
       <c r="L24" s="2"/>
       <c r="Y24" t="str">
@@ -26853,7 +27174,7 @@
       <c r="I25" s="45"/>
       <c r="J25" s="43"/>
       <c r="K25" s="43" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_U15233F5</v>
       </c>
       <c r="L25" s="2"/>
       <c r="Y25" t="str">
@@ -26878,7 +27199,7 @@
       <c r="I26" s="45"/>
       <c r="J26" s="43"/>
       <c r="K26" s="43" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_S29JE7OA</v>
       </c>
       <c r="L26" s="2"/>
       <c r="Y26" t="str">
@@ -26903,7 +27224,7 @@
       <c r="I27" s="45"/>
       <c r="J27" s="43"/>
       <c r="K27" s="43" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_E0FQLDV6</v>
       </c>
       <c r="L27" s="2"/>
       <c r="Y27" t="str">
@@ -26928,7 +27249,7 @@
       <c r="I28" s="45"/>
       <c r="J28" s="43"/>
       <c r="K28" s="43" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_6OSNPL9E</v>
       </c>
       <c r="L28" s="2"/>
       <c r="Y28" t="str">
@@ -26953,7 +27274,7 @@
       <c r="I29" s="45"/>
       <c r="J29" s="43"/>
       <c r="K29" s="43" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_WFWHONCP</v>
       </c>
       <c r="L29" s="2"/>
       <c r="Y29" t="str">
@@ -26978,7 +27299,7 @@
       <c r="I30" s="45"/>
       <c r="J30" s="43"/>
       <c r="K30" s="43" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_B3CIX5F3</v>
       </c>
       <c r="L30" s="2"/>
       <c r="Y30" t="str">
@@ -27003,7 +27324,7 @@
       <c r="I31" s="45"/>
       <c r="J31" s="43"/>
       <c r="K31" s="43" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_J38J7CKW</v>
       </c>
       <c r="L31" s="2"/>
       <c r="Y31" t="str">
@@ -27028,7 +27349,7 @@
       <c r="I32" s="45"/>
       <c r="J32" s="43"/>
       <c r="K32" s="43" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_0U2LEIHT</v>
       </c>
       <c r="L32" s="2"/>
       <c r="Y32" t="str">
@@ -27928,9 +28249,7 @@
   </sheetPr>
   <dimension ref="B1:M104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28162,7 +28481,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -28278,7 +28597,7 @@
       </c>
       <c r="F27" s="74">
         <f ca="1">NOW()-4</f>
-        <v>43808.419596180553</v>
+        <v>43833.390084606479</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>358</v>
@@ -28588,7 +28907,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="11" t="str">
         <f ca="1">_xll.flHoldingsAdjust(F23,F25,F27,E30:M40)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Holdings set for portfolio code UKHGE_base_fund</v>
       </c>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
@@ -28955,8 +29274,8 @@
   </sheetPr>
   <dimension ref="B1:Q103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:Q41"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29191,7 +29510,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -29210,7 +29529,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="54" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -29353,7 +29672,7 @@
       </c>
       <c r="F26" s="74">
         <f ca="1">NOW()-4</f>
-        <v>43808.419596180553</v>
+        <v>43833.390084606479</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>358</v>
@@ -29479,13 +29798,13 @@
       </c>
       <c r="M30" s="87">
         <f ca="1">F26</f>
-        <v>43808.419596180553</v>
+        <v>43833.390084606479</v>
       </c>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
       <c r="P30" s="50" t="str">
         <f ca="1">_xll.flQuotesAdd(F22,E29:O34)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Added 4 quote(s) as at time 2020-01-07 09:21:43Z</v>
       </c>
       <c r="Q30" s="2"/>
     </row>
@@ -29519,7 +29838,7 @@
       </c>
       <c r="M31" s="87">
         <f ca="1">M30</f>
-        <v>43808.419596180553</v>
+        <v>43833.390084606479</v>
       </c>
       <c r="N31" s="43"/>
       <c r="O31" s="43"/>
@@ -29556,7 +29875,7 @@
       </c>
       <c r="M32" s="87">
         <f ca="1">M31</f>
-        <v>43808.419596180553</v>
+        <v>43833.390084606479</v>
       </c>
       <c r="N32" s="43"/>
       <c r="O32" s="43"/>
@@ -29593,7 +29912,7 @@
       </c>
       <c r="M33" s="87">
         <f ca="1">M32</f>
-        <v>43808.419596180553</v>
+        <v>43833.390084606479</v>
       </c>
       <c r="N33" s="87"/>
       <c r="O33" s="87"/>
@@ -30089,8 +30408,8 @@
   </sheetPr>
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30298,12 +30617,12 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="K15" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="2"/>
@@ -30315,12 +30634,12 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="K16" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="2"/>
@@ -30498,7 +30817,7 @@
       </c>
       <c r="F27" s="89">
         <f ca="1">'Upserting market quotes'!F26</f>
-        <v>43808.419596180553</v>
+        <v>43833.390084606479</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -30606,24 +30925,24 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="91" t="str">
-        <f t="array" aca="1" ref="E34:I45" ca="1">_xll.flAggregatePortfolio(F23,F25,K34:L40,L41)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <f t="array" ref="E34:I45" ca="1">_xll.flAggregatePortfolio(F23,F25,K34:L40,L41)</f>
+        <v>Sub-Holding Key</v>
       </c>
       <c r="F34" s="91" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Name</v>
       </c>
       <c r="G34" s="91" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>UnitsSum</v>
       </c>
       <c r="H34" s="91" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>CostSum</v>
       </c>
       <c r="I34" s="91" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>PVSum</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="92" t="s">
@@ -30644,23 +30963,23 @@
       <c r="D35" s="2"/>
       <c r="E35" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>LusidInstrumentId=LUID_FVL71B1S/USD</v>
       </c>
       <c r="F35" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="G35" s="102" t="str">
+        <v>Amazon_Nasdaq_AMZN</v>
+      </c>
+      <c r="G35" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="H35" s="102" t="str">
+        <v>5000</v>
+      </c>
+      <c r="H35" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="I35" s="102" t="str">
+        <v>7750000</v>
+      </c>
+      <c r="I35" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>8113250</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="49" t="s">
@@ -30679,23 +30998,23 @@
       <c r="D36" s="2"/>
       <c r="E36" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>LusidInstrumentId=LUID_U15233F5/USD</v>
       </c>
       <c r="F36" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="G36" s="102" t="str">
+        <v>Apple_Nasdaq_AAPL</v>
+      </c>
+      <c r="G36" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="H36" s="102" t="str">
+        <v>49567</v>
+      </c>
+      <c r="H36" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="I36" s="102" t="str">
+        <v>9417730</v>
+      </c>
+      <c r="I36" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>8466043.5999999996</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="49" t="s">
@@ -30714,23 +31033,23 @@
       <c r="D37" s="2"/>
       <c r="E37" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>LusidInstrumentId=LUID_S29JE7OA/USD</v>
       </c>
       <c r="F37" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="G37" s="102" t="str">
+        <v>USTreasury_2.00_2021</v>
+      </c>
+      <c r="G37" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="H37" s="102" t="str">
+        <v>121543</v>
+      </c>
+      <c r="H37" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="I37" s="102" t="str">
+        <v>12063142.75</v>
+      </c>
+      <c r="I37" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>11911214</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="49" t="s">
@@ -30738,7 +31057,7 @@
       </c>
       <c r="L37" s="99">
         <f ca="1">F27</f>
-        <v>43808.419596180553</v>
+        <v>43833.390084606479</v>
       </c>
       <c r="M37" s="100"/>
       <c r="N37" s="100"/>
@@ -30752,30 +31071,30 @@
       <c r="D38" s="2"/>
       <c r="E38" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>LusidInstrumentId=LUID_E0FQLDV6/USD</v>
       </c>
       <c r="F38" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="G38" s="102" t="str">
+        <v>USTreasury_6.875_2025</v>
+      </c>
+      <c r="G38" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="H38" s="102" t="str">
+        <v>98444</v>
+      </c>
+      <c r="H38" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="I38" s="102" t="str">
+        <v>13878635.119999999</v>
+      </c>
+      <c r="I38" s="102">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>14014487.84</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="49" t="s">
         <v>385</v>
       </c>
       <c r="L38" s="97" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M38" s="98"/>
       <c r="N38" s="98"/>
@@ -30789,30 +31108,30 @@
       <c r="D39" s="2"/>
       <c r="E39" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F39" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G39" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H39" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I39" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="49" t="s">
         <v>386</v>
       </c>
       <c r="L39" s="97" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M39" s="98"/>
       <c r="N39" s="98"/>
@@ -30826,23 +31145,23 @@
       <c r="D40" s="2"/>
       <c r="E40" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F40" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G40" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H40" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I40" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="49" t="s">
@@ -30861,34 +31180,34 @@
       <c r="D41" s="2"/>
       <c r="E41" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F41" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G41" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H41" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I41" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="L41" s="110" t="s">
+      <c r="L41" s="111" t="s">
         <v>389</v>
       </c>
-      <c r="M41" s="111"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="111"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
@@ -30898,30 +31217,30 @@
       <c r="D42" s="2"/>
       <c r="E42" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F42" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G42" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H42" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I42" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="49"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
@@ -30931,30 +31250,30 @@
       <c r="D43" s="2"/>
       <c r="E43" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F43" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G43" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H43" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I43" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="49"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="112"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
@@ -30964,30 +31283,30 @@
       <c r="D44" s="2"/>
       <c r="E44" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F44" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G44" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H44" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I44" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="49"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="111"/>
-      <c r="O44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="112"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
@@ -30997,30 +31316,30 @@
       <c r="D45" s="2"/>
       <c r="E45" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F45" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G45" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H45" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I45" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="49"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="111"/>
-      <c r="O45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
@@ -31035,10 +31354,10 @@
       <c r="I46" s="102"/>
       <c r="J46" s="2"/>
       <c r="K46" s="49"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="112"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
@@ -31053,10 +31372,10 @@
       <c r="I47" s="102"/>
       <c r="J47" s="2"/>
       <c r="K47" s="49"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -31071,10 +31390,10 @@
       <c r="I48" s="102"/>
       <c r="J48" s="2"/>
       <c r="K48" s="49"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="111"/>
-      <c r="N48" s="111"/>
-      <c r="O48" s="111"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="112"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="112"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
@@ -31119,8 +31438,8 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31322,7 +31641,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -31337,7 +31656,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="53" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -31352,12 +31671,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="53" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
       <c r="K17" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="2"/>
@@ -31372,7 +31691,7 @@
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
       <c r="K18" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -31463,7 +31782,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -31503,7 +31822,7 @@
       </c>
       <c r="L28" s="6" t="str">
         <f t="array" ref="L28:L31">_xll.flPropertiesAdd(E28:K31)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Keys</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -31519,22 +31838,22 @@
         <v>323</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H29" s="14" t="b">
         <v>0</v>
       </c>
       <c r="I29" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="J29" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="J29" s="33" t="s">
-        <v>415</v>
-      </c>
       <c r="K29" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L29" s="103" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Entity already exists</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -31543,29 +31862,15 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="H30" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="K30" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="L30" s="103" t="str">
-        <v>#ERROR: User session not authenticated</v>
+      <c r="E30" s="38"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="103" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -31581,8 +31886,8 @@
       <c r="I31" s="38"/>
       <c r="J31" s="33"/>
       <c r="K31" s="43"/>
-      <c r="L31" s="104" t="str">
-        <v>#ERROR: User session not authenticated</v>
+      <c r="L31" s="104" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -31694,7 +31999,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="2"/>
@@ -31756,19 +32061,19 @@
         <v>357</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>357</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="33"/>
       <c r="K42" s="103" t="str">
         <f>_xll.flInstrumentsAdd(E41:J42)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_NAM9ARDX</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -31796,7 +32101,7 @@
         <v>#ERROR: User session not authenticated</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -31810,16 +32115,16 @@
       <c r="B46" s="2"/>
       <c r="C46" s="11"/>
       <c r="D46" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="9" t="s">
         <v>402</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>403</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="6"/>
@@ -31843,7 +32148,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -31859,16 +32164,16 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>402</v>
-      </c>
       <c r="G49" s="92" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H49" s="92"/>
       <c r="I49" s="9"/>
@@ -31882,7 +32187,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E50" s="38" t="s">
         <v>357</v>
@@ -31895,7 +32200,7 @@
       <c r="I50" s="105"/>
       <c r="J50" s="103" t="str">
         <f>_xll.flInstrumentPropertiesAdd(D49:G50)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>OK</v>
       </c>
       <c r="K50" s="2"/>
     </row>
@@ -32009,8 +32314,8 @@
   </sheetPr>
   <dimension ref="B1:R79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32198,7 +32503,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="56" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
@@ -32214,12 +32519,12 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="54" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="M15" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -32229,12 +32534,12 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="53" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="M16" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -32406,7 +32711,7 @@
       </c>
       <c r="F27" s="89">
         <f ca="1">'Upserting market quotes'!F26</f>
-        <v>43808.419596180553</v>
+        <v>43833.390084606479</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -32494,24 +32799,24 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="91" t="str">
-        <f t="array" aca="1" ref="E33:I44" ca="1">_xll.flAggregatePortfolio(F23,F25,K33:L39,L40)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <f t="array" ref="E33:I44" ca="1">_xll.flAggregatePortfolio(F23,F25,K33:L39,L40)</f>
+        <v>CostSum</v>
       </c>
       <c r="F33" s="91" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>PVSum</v>
       </c>
       <c r="G33" s="91" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Name</v>
       </c>
       <c r="H33" s="91" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I33" s="91" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="92" t="s">
@@ -32530,25 +32835,25 @@
       <c r="B34" s="11"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="93" t="str">
+      <c r="E34" s="93">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
-      </c>
-      <c r="F34" s="101" t="str">
+        <v>43109507.869999997</v>
+      </c>
+      <c r="F34" s="101">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>42504995.439999998</v>
       </c>
       <c r="G34" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>UKHGE base fund</v>
       </c>
       <c r="H34" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I34" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="49" t="s">
@@ -32567,23 +32872,23 @@
       <c r="D35" s="2"/>
       <c r="E35" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F35" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G35" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H35" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I35" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="49" t="s">
@@ -32602,23 +32907,23 @@
       <c r="D36" s="2"/>
       <c r="E36" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F36" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G36" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H36" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I36" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="49" t="s">
@@ -32626,7 +32931,7 @@
       </c>
       <c r="L36" s="99">
         <f ca="1">F27</f>
-        <v>43808.419596180553</v>
+        <v>43833.390084606479</v>
       </c>
       <c r="M36" s="100"/>
       <c r="N36" s="100"/>
@@ -32640,30 +32945,30 @@
       <c r="D37" s="2"/>
       <c r="E37" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F37" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G37" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H37" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I37" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="49" t="s">
         <v>385</v>
       </c>
       <c r="L37" s="97" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M37" s="98"/>
       <c r="N37" s="98"/>
@@ -32677,30 +32982,30 @@
       <c r="D38" s="2"/>
       <c r="E38" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F38" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G38" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H38" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I38" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="49" t="s">
         <v>386</v>
       </c>
       <c r="L38" s="97" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M38" s="98"/>
       <c r="N38" s="98"/>
@@ -32714,23 +33019,23 @@
       <c r="D39" s="2"/>
       <c r="E39" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F39" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G39" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H39" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I39" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="49" t="s">
@@ -32749,34 +33054,34 @@
       <c r="D40" s="2"/>
       <c r="E40" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F40" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G40" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H40" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I40" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="L40" s="110" t="s">
+      <c r="L40" s="111" t="s">
         <v>389</v>
       </c>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
@@ -32786,30 +33091,30 @@
       <c r="D41" s="2"/>
       <c r="E41" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F41" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G41" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H41" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I41" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="49"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="111"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
@@ -32819,30 +33124,30 @@
       <c r="D42" s="2"/>
       <c r="E42" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F42" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G42" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H42" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I42" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="49"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
@@ -32852,30 +33157,30 @@
       <c r="D43" s="2"/>
       <c r="E43" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F43" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G43" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H43" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I43" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="49"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="112"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
@@ -32885,30 +33190,30 @@
       <c r="D44" s="2"/>
       <c r="E44" s="93" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="F44" s="94" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G44" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H44" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I44" s="102" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="49"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="111"/>
-      <c r="O44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="112"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
@@ -32923,10 +33228,10 @@
       <c r="I45" s="102"/>
       <c r="J45" s="2"/>
       <c r="K45" s="49"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="111"/>
-      <c r="O45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
@@ -32941,10 +33246,10 @@
       <c r="I46" s="102"/>
       <c r="J46" s="2"/>
       <c r="K46" s="49"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="112"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
@@ -32959,10 +33264,10 @@
       <c r="I47" s="102"/>
       <c r="J47" s="2"/>
       <c r="K47" s="49"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -33005,7 +33310,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -33015,7 +33320,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="108">
@@ -33034,12 +33339,12 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F53" s="41"/>
-      <c r="G53" s="108" t="str">
+      <c r="G53" s="108">
         <f ca="1">F34</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>42504995.439999998</v>
       </c>
       <c r="M53" s="42"/>
       <c r="N53" s="2"/>
@@ -33050,12 +33355,12 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="53" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F54" s="54"/>
-      <c r="G54" s="54" t="e">
+      <c r="G54" s="54">
         <f ca="1">ROUND(G53/G52,2)</f>
-        <v>#VALUE!</v>
+        <v>1062.6199999999999</v>
       </c>
       <c r="M54" s="42"/>
       <c r="N54" s="2"/>
@@ -33100,7 +33405,7 @@
     <row r="58" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33170,7 +33475,7 @@
       </c>
       <c r="F64" s="74">
         <f ca="1">NOW()-4</f>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="G64" s="55" t="s">
         <v>358</v>
@@ -33281,7 +33586,7 @@
       </c>
       <c r="H68" s="109" t="str">
         <f>'Securitising base fund'!K42</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_NAM9ARDX</v>
       </c>
       <c r="I68" s="21" t="s">
         <v>194</v>
@@ -33289,22 +33594,22 @@
       <c r="J68" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="K68" s="33" t="e">
+      <c r="K68" s="33">
         <f ca="1">G54</f>
-        <v>#VALUE!</v>
+        <v>1062.6199999999999</v>
       </c>
       <c r="L68" s="43" t="s">
         <v>8</v>
       </c>
       <c r="M68" s="87">
         <f ca="1">F64</f>
-        <v>43808.419595949075</v>
+        <v>43833.39007858796</v>
       </c>
       <c r="N68" s="50"/>
       <c r="O68" s="50"/>
-      <c r="P68" s="50" t="str">
+      <c r="P68" s="103" t="str">
         <f ca="1">_xll.flQuotesAdd(F62,E67:O72)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Added 1 quote(s) as at time 2020-01-07 09:21:43Z</v>
       </c>
       <c r="Q68" s="2"/>
     </row>
@@ -33545,8 +33850,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33738,7 +34043,7 @@
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
       <c r="E13" s="56" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
@@ -33768,7 +34073,7 @@
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="54" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -33784,7 +34089,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="54" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -33800,7 +34105,7 @@
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="54" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -34005,17 +34310,17 @@
         <v>1</v>
       </c>
       <c r="E29" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="G29" s="59" t="s">
         <v>442</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>443</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>444</v>
       </c>
       <c r="H29" s="74">
         <f ca="1">NOW()-365</f>
-        <v>43447.419595949075</v>
+        <v>43472.39007858796</v>
       </c>
       <c r="I29" s="59" t="s">
         <v>14</v>
@@ -34025,9 +34330,9 @@
         <v>226</v>
       </c>
       <c r="L29" s="38"/>
-      <c r="M29" s="38" t="str">
+      <c r="M29" s="103" t="str">
         <f t="array" aca="1" ref="M29:M33" ca="1">_xll.flPortfoliosAdd(F25,E28:L33)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Entity already exists</v>
       </c>
       <c r="N29" s="17"/>
     </row>
@@ -34039,17 +34344,17 @@
         <v>2</v>
       </c>
       <c r="E30" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="G30" s="59" t="s">
         <v>445</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>446</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>447</v>
       </c>
       <c r="H30" s="74">
         <f ca="1">NOW()-365</f>
-        <v>43447.419595949075</v>
+        <v>43472.39007858796</v>
       </c>
       <c r="I30" s="59" t="s">
         <v>69</v>
@@ -34059,9 +34364,9 @@
         <v>226</v>
       </c>
       <c r="L30" s="35"/>
-      <c r="M30" s="38" t="str">
+      <c r="M30" s="103" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Entity already exists</v>
       </c>
       <c r="N30" s="2"/>
     </row>
@@ -34073,17 +34378,17 @@
         <v>3</v>
       </c>
       <c r="E31" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="G31" s="59" t="s">
         <v>448</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>449</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>450</v>
       </c>
       <c r="H31" s="74">
         <f ca="1">NOW()-365</f>
-        <v>43447.419595949075</v>
+        <v>43472.39007858796</v>
       </c>
       <c r="I31" s="59" t="s">
         <v>8</v>
@@ -34093,9 +34398,9 @@
         <v>226</v>
       </c>
       <c r="L31" s="35"/>
-      <c r="M31" s="38" t="str">
+      <c r="M31" s="103" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Entity already exists</v>
       </c>
       <c r="N31" s="2"/>
     </row>
@@ -34107,17 +34412,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G32" s="59" t="s">
         <v>451</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>452</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>453</v>
       </c>
       <c r="H32" s="74">
         <f ca="1">NOW()-365</f>
-        <v>43447.419595949075</v>
+        <v>43472.39007858796</v>
       </c>
       <c r="I32" s="59" t="s">
         <v>5</v>
@@ -34127,9 +34432,9 @@
         <v>226</v>
       </c>
       <c r="L32" s="35"/>
-      <c r="M32" s="38" t="str">
+      <c r="M32" s="103" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Entity already exists</v>
       </c>
       <c r="N32" s="2"/>
     </row>
@@ -34141,17 +34446,17 @@
         <v>5</v>
       </c>
       <c r="E33" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="G33" s="59" t="s">
         <v>454</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>455</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>456</v>
       </c>
       <c r="H33" s="74">
         <f ca="1">NOW()-365</f>
-        <v>43447.419595949075</v>
+        <v>43472.39007858796</v>
       </c>
       <c r="I33" s="59" t="s">
         <v>83</v>
@@ -34161,9 +34466,9 @@
         <v>226</v>
       </c>
       <c r="L33" s="35"/>
-      <c r="M33" s="38" t="str">
+      <c r="M33" s="103" t="str">
         <f ca="1"/>
-        <v>#ERROR: User session not authenticated</v>
+        <v>Entity already exists</v>
       </c>
       <c r="N33" s="2"/>
     </row>
@@ -34362,21 +34667,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED7FFFC81E40E242B1541D0602C582EC" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="392b4aa86b54b1b44668db5e449e18a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43d77729-b3b5-43d2-8eeb-4fba98ba19cc" xmlns:ns4="bfb7c3a1-8446-4cdf-8803-34a87e3df632" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da7639e5c2e6b11c3a3b85f93dd9e28c" ns3:_="" ns4:_="">
     <xsd:import namespace="43d77729-b3b5-43d2-8eeb-4fba98ba19cc"/>
@@ -34547,10 +34837,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE340CE-0FB2-490C-8292-BC185D93D393}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43d77729-b3b5-43d2-8eeb-4fba98ba19cc"/>
+    <ds:schemaRef ds:uri="bfb7c3a1-8446-4cdf-8803-34a87e3df632"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34573,20 +34889,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE340CE-0FB2-490C-8292-BC185D93D393}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43d77729-b3b5-43d2-8eeb-4fba98ba19cc"/>
-    <ds:schemaRef ds:uri="bfb7c3a1-8446-4cdf-8803-34a87e3df632"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LUSID Excel - Maintain a product in multiple currencies and share classes.xlsx
+++ b/LUSID Excel - Maintain a product in multiple currencies and share classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81060B8-1375-4C62-A3DA-655D4F5D39A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF014B7-E674-4A1A-A4B0-FBEBAC84DAD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24705" yWindow="270" windowWidth="26340" windowHeight="14445" tabRatio="798" activeTab="6" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" firstSheet="7" activeTab="14" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="14" r:id="rId1"/>
@@ -19,65 +19,65 @@
     <sheet name="Set up initial holdings" sheetId="12" r:id="rId4"/>
     <sheet name="Upserting market quotes" sheetId="19" r:id="rId5"/>
     <sheet name="Run valuation" sheetId="20" r:id="rId6"/>
-    <sheet name="Re-run valuation" sheetId="31" r:id="rId7"/>
-    <sheet name="Securitising base fund" sheetId="21" r:id="rId8"/>
-    <sheet name="Unit price calc" sheetId="24" r:id="rId9"/>
-    <sheet name="Create foreign ccy portfolios" sheetId="25" r:id="rId10"/>
-    <sheet name="Add FX quotes" sheetId="26" r:id="rId11"/>
-    <sheet name="Set up foreign holdings" sheetId="27" r:id="rId12"/>
-    <sheet name="Valuing foreign holdings" sheetId="28" r:id="rId13"/>
-    <sheet name="Additional transaction" sheetId="29" r:id="rId14"/>
-    <sheet name="Re-valuing base fund" sheetId="30" r:id="rId15"/>
+    <sheet name="Securitising base fund" sheetId="21" r:id="rId7"/>
+    <sheet name="Unit price calc" sheetId="24" r:id="rId8"/>
+    <sheet name="Create foreign ccy portfolios" sheetId="25" r:id="rId9"/>
+    <sheet name="Add FX quotes" sheetId="26" r:id="rId10"/>
+    <sheet name="Set up foreign holdings" sheetId="27" r:id="rId11"/>
+    <sheet name="Valuing foreign holdings" sheetId="28" r:id="rId12"/>
+    <sheet name="Additional transaction" sheetId="29" r:id="rId13"/>
+    <sheet name="Re-valuing base fund" sheetId="30" r:id="rId14"/>
+    <sheet name="Re-valuing (2)" sheetId="32" r:id="rId15"/>
     <sheet name="Inputs" sheetId="3" state="hidden" r:id="rId16"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
-    <definedName name="AsAtDate" localSheetId="10">'[1]View portfolios'!$F$23</definedName>
+    <definedName name="AsAtDate" localSheetId="9">'[1]View portfolios'!$F$23</definedName>
     <definedName name="AsAtDate" localSheetId="2">#REF!</definedName>
-    <definedName name="AsAtDate" localSheetId="6">'[1]View portfolios'!$F$23</definedName>
     <definedName name="AsAtDate" localSheetId="14">'[1]View portfolios'!$F$23</definedName>
+    <definedName name="AsAtDate" localSheetId="13">'[1]View portfolios'!$F$23</definedName>
     <definedName name="AsAtDate" localSheetId="5">'[1]View portfolios'!$F$23</definedName>
-    <definedName name="AsAtDate" localSheetId="7">#REF!</definedName>
-    <definedName name="AsAtDate" localSheetId="8">'[1]View portfolios'!$F$23</definedName>
-    <definedName name="AsAtDate" localSheetId="12">'[1]View portfolios'!$F$23</definedName>
+    <definedName name="AsAtDate" localSheetId="6">#REF!</definedName>
+    <definedName name="AsAtDate" localSheetId="7">'[1]View portfolios'!$F$23</definedName>
+    <definedName name="AsAtDate" localSheetId="11">'[1]View portfolios'!$F$23</definedName>
     <definedName name="AsAtDate">#REF!</definedName>
-    <definedName name="EffectiveDate" localSheetId="10">'[1]View portfolios'!$F$21</definedName>
+    <definedName name="EffectiveDate" localSheetId="9">'[1]View portfolios'!$F$21</definedName>
     <definedName name="EffectiveDate" localSheetId="2">#REF!</definedName>
-    <definedName name="EffectiveDate" localSheetId="6">'[1]View portfolios'!$F$21</definedName>
     <definedName name="EffectiveDate" localSheetId="14">'[1]View portfolios'!$F$21</definedName>
+    <definedName name="EffectiveDate" localSheetId="13">'[1]View portfolios'!$F$21</definedName>
     <definedName name="EffectiveDate" localSheetId="5">'[1]View portfolios'!$F$21</definedName>
-    <definedName name="EffectiveDate" localSheetId="7">#REF!</definedName>
-    <definedName name="EffectiveDate" localSheetId="8">'[1]View portfolios'!$F$21</definedName>
-    <definedName name="EffectiveDate" localSheetId="12">'[1]View portfolios'!$F$21</definedName>
+    <definedName name="EffectiveDate" localSheetId="6">#REF!</definedName>
+    <definedName name="EffectiveDate" localSheetId="7">'[1]View portfolios'!$F$21</definedName>
+    <definedName name="EffectiveDate" localSheetId="11">'[1]View portfolios'!$F$21</definedName>
     <definedName name="EffectiveDate">#REF!</definedName>
-    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="10">'Add FX quotes'!#REF!</definedName>
+    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="9">'Add FX quotes'!#REF!</definedName>
     <definedName name="fbnAggregationParameters_Template_ref" localSheetId="2">'Create your instrument universe'!#REF!</definedName>
-    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="6">'Re-run valuation'!$Q$33:$R$35</definedName>
-    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="14">'Re-valuing base fund'!#REF!</definedName>
+    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="14">'Re-valuing (2)'!$Q$33:$R$35</definedName>
+    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="13">'Re-valuing base fund'!#REF!</definedName>
     <definedName name="fbnAggregationParameters_Template_ref" localSheetId="5">'Run valuation'!$Q$33:$R$35</definedName>
-    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="7">'Securitising base fund'!#REF!</definedName>
-    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="8">'Unit price calc'!$Q$32:$R$34</definedName>
-    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="12">'Valuing foreign holdings'!$Q$33:$R$35</definedName>
-    <definedName name="fbnHoldings_Template_ref" localSheetId="13">'Additional transaction'!#REF!</definedName>
+    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="6">'Securitising base fund'!#REF!</definedName>
+    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="7">'Unit price calc'!$Q$32:$R$34</definedName>
+    <definedName name="fbnAggregationParameters_Template_ref" localSheetId="11">'Valuing foreign holdings'!$Q$33:$R$35</definedName>
+    <definedName name="fbnHoldings_Template_ref" localSheetId="12">'Additional transaction'!#REF!</definedName>
     <definedName name="fbnHoldings_Template_ref" localSheetId="2">'Create your instrument universe'!#REF!</definedName>
-    <definedName name="fbnHoldings_Template_ref" localSheetId="7">'Securitising base fund'!#REF!</definedName>
-    <definedName name="fbnHoldings_Template_ref" localSheetId="11">'Set up foreign holdings'!#REF!</definedName>
+    <definedName name="fbnHoldings_Template_ref" localSheetId="6">'Securitising base fund'!#REF!</definedName>
+    <definedName name="fbnHoldings_Template_ref" localSheetId="10">'Set up foreign holdings'!#REF!</definedName>
     <definedName name="fbnHoldings_Template_ref" localSheetId="3">'Set up initial holdings'!#REF!</definedName>
     <definedName name="fbnHoldings_Template_ref" localSheetId="4">'Upserting market quotes'!#REF!</definedName>
     <definedName name="fbnInstrumentProperties_Template_ref" localSheetId="2">'Create your instrument universe'!$G$85:$H$85</definedName>
-    <definedName name="fbnInstrumentProperties_Template_ref" localSheetId="7">'Securitising base fund'!$G$32:$H$32</definedName>
+    <definedName name="fbnInstrumentProperties_Template_ref" localSheetId="6">'Securitising base fund'!$G$32:$H$32</definedName>
     <definedName name="fbnInstruments_Template_ref" localSheetId="2">'Create your instrument universe'!$O$22:$U$22</definedName>
-    <definedName name="fbnInstruments_Template_ref" localSheetId="7">'Securitising base fund'!#REF!</definedName>
-    <definedName name="fbnPortfoliosAdd_Template_ref" localSheetId="9">'Create foreign ccy portfolios'!#REF!</definedName>
+    <definedName name="fbnInstruments_Template_ref" localSheetId="6">'Securitising base fund'!#REF!</definedName>
+    <definedName name="fbnPortfoliosAdd_Template_ref" localSheetId="8">'Create foreign ccy portfolios'!#REF!</definedName>
     <definedName name="fbnPortfoliosAdd_Template_ref" localSheetId="1">'Create scope and portfolio'!#REF!</definedName>
     <definedName name="fbnPropertiesAdd_Template_ref" localSheetId="2">'Create your instrument universe'!$G$81:$M$81</definedName>
-    <definedName name="fbnPropertiesAdd_Template_ref" localSheetId="7">'Securitising base fund'!$G$28:$M$28</definedName>
+    <definedName name="fbnPropertiesAdd_Template_ref" localSheetId="6">'Securitising base fund'!$G$28:$M$28</definedName>
     <definedName name="fbnSecurities_Template_ref" localSheetId="2">'Create your instrument universe'!#REF!</definedName>
-    <definedName name="fbnSecurities_Template_ref" localSheetId="7">'Securitising base fund'!#REF!</definedName>
+    <definedName name="fbnSecurities_Template_ref" localSheetId="6">'Securitising base fund'!#REF!</definedName>
     <definedName name="Portfolio" localSheetId="2">#REF!</definedName>
-    <definedName name="Portfolio" localSheetId="7">#REF!</definedName>
+    <definedName name="Portfolio" localSheetId="6">#REF!</definedName>
     <definedName name="Portfolio">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="428">
   <si>
     <t>Code</t>
   </si>
@@ -1382,9 +1382,6 @@
   </si>
   <si>
     <t>As a day has passed since you last performed an aggregation we need to make sure you have up to date market data.</t>
-  </si>
-  <si>
-    <t>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</t>
   </si>
 </sst>
 </file>
@@ -1393,9 +1390,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="ddd\-dd\-mmm\-yy\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="169" formatCode="dd\-mmm\-yy\ hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="dd\-mmm\-yy\ hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1663,7 +1660,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1671,7 +1668,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,10 +1717,10 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1764,7 +1761,7 @@
     <xf numFmtId="4" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1784,7 +1781,7 @@
     <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1806,13 +1803,7 @@
     <xf numFmtId="4" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1822,6 +1813,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1850,355 +1847,422 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.06c7f756d18f45788a0e75699d42f1a3">
+    <main first="rtdsrv.0900def3d54d44e180ac2deb56f9e2b8">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>ef3ff2e7-2616-40a2-947c-6192b199a069</stp>
+        <stp>d7c9cdd5-4405-4262-bfda-4046abba6ff9</stp>
+        <tr r="I39" s="20"/>
+        <tr r="H35" s="20"/>
+        <tr r="I35" s="20"/>
+        <tr r="E37" s="20"/>
+        <tr r="F37" s="20"/>
+        <tr r="H36" s="20"/>
+        <tr r="E45" s="20"/>
+        <tr r="H37" s="20"/>
+        <tr r="E38" s="20"/>
+        <tr r="G35" s="20"/>
+        <tr r="I36" s="20"/>
+        <tr r="H44" s="20"/>
+        <tr r="G44" s="20"/>
+        <tr r="I38" s="20"/>
+        <tr r="F45" s="20"/>
+        <tr r="F43" s="20"/>
+        <tr r="I41" s="20"/>
+        <tr r="I44" s="20"/>
+        <tr r="E42" s="20"/>
+        <tr r="G34" s="20"/>
+        <tr r="F39" s="20"/>
+        <tr r="E44" s="20"/>
+        <tr r="F38" s="20"/>
+        <tr r="I40" s="20"/>
+        <tr r="F41" s="20"/>
+        <tr r="I42" s="20"/>
+        <tr r="I43" s="20"/>
+        <tr r="H38" s="20"/>
+        <tr r="G36" s="20"/>
+        <tr r="H39" s="20"/>
+        <tr r="E35" s="20"/>
+        <tr r="H45" s="20"/>
+        <tr r="F40" s="20"/>
+        <tr r="G39" s="20"/>
+        <tr r="H34" s="20"/>
+        <tr r="G37" s="20"/>
+        <tr r="G41" s="20"/>
+        <tr r="I34" s="20"/>
+        <tr r="E43" s="20"/>
+        <tr r="E41" s="20"/>
+        <tr r="H42" s="20"/>
+        <tr r="E34" s="20"/>
+        <tr r="F34" s="20"/>
+        <tr r="G40" s="20"/>
+        <tr r="F42" s="20"/>
+        <tr r="I37" s="20"/>
+        <tr r="F36" s="20"/>
+        <tr r="E36" s="20"/>
+        <tr r="G42" s="20"/>
+        <tr r="H41" s="20"/>
+        <tr r="F44" s="20"/>
         <tr r="H40" s="20"/>
-        <tr r="I34" s="20"/>
-        <tr r="F38" s="20"/>
-        <tr r="H36" s="20"/>
-        <tr r="I37" s="20"/>
-        <tr r="G44" s="20"/>
-        <tr r="E36" s="20"/>
-        <tr r="E35" s="20"/>
         <tr r="E39" s="20"/>
-        <tr r="I39" s="20"/>
-        <tr r="H42" s="20"/>
-        <tr r="F34" s="20"/>
-        <tr r="E38" s="20"/>
-        <tr r="I38" s="20"/>
-        <tr r="H38" s="20"/>
-        <tr r="H45" s="20"/>
         <tr r="G45" s="20"/>
-        <tr r="F39" s="20"/>
-        <tr r="E37" s="20"/>
-        <tr r="F41" s="20"/>
-        <tr r="I43" s="20"/>
-        <tr r="F45" s="20"/>
-        <tr r="G42" s="20"/>
-        <tr r="F40" s="20"/>
         <tr r="H43" s="20"/>
-        <tr r="E43" s="20"/>
-        <tr r="G34" s="20"/>
-        <tr r="G40" s="20"/>
-        <tr r="F36" s="20"/>
-        <tr r="F43" s="20"/>
-        <tr r="G36" s="20"/>
-        <tr r="G39" s="20"/>
         <tr r="F35" s="20"/>
-        <tr r="H35" s="20"/>
+        <tr r="G38" s="20"/>
+        <tr r="I45" s="20"/>
+        <tr r="E40" s="20"/>
         <tr r="G43" s="20"/>
-        <tr r="E45" s="20"/>
-        <tr r="G35" s="20"/>
-        <tr r="I41" s="20"/>
-        <tr r="H41" s="20"/>
-        <tr r="H34" s="20"/>
-        <tr r="G38" s="20"/>
-        <tr r="E44" s="20"/>
-        <tr r="E34" s="20"/>
-        <tr r="F42" s="20"/>
-        <tr r="I36" s="20"/>
-        <tr r="I44" s="20"/>
-        <tr r="H39" s="20"/>
-        <tr r="G37" s="20"/>
-        <tr r="I45" s="20"/>
-        <tr r="E41" s="20"/>
-        <tr r="I40" s="20"/>
-        <tr r="H37" s="20"/>
-        <tr r="H44" s="20"/>
-        <tr r="E42" s="20"/>
-        <tr r="F44" s="20"/>
-        <tr r="G41" s="20"/>
-        <tr r="E40" s="20"/>
-        <tr r="I35" s="20"/>
-        <tr r="F37" s="20"/>
-        <tr r="I42" s="20"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0900def3d54d44e180ac2deb56f9e2b8">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4b0a601e-c86b-478e-bcc4-790ebfb7cf42</stp>
+        <tr r="L72" s="15"/>
+        <tr r="I54" s="15"/>
+        <tr r="I69" s="15"/>
+        <tr r="H53" s="15"/>
+        <tr r="F52" s="15"/>
+        <tr r="H55" s="15"/>
+        <tr r="F63" s="15"/>
+        <tr r="L56" s="15"/>
+        <tr r="J62" s="15"/>
+        <tr r="J59" s="15"/>
+        <tr r="J54" s="15"/>
+        <tr r="F62" s="15"/>
+        <tr r="H57" s="15"/>
+        <tr r="K54" s="15"/>
+        <tr r="H52" s="15"/>
+        <tr r="I66" s="15"/>
+        <tr r="L63" s="15"/>
+        <tr r="K55" s="15"/>
+        <tr r="K64" s="15"/>
+        <tr r="J55" s="15"/>
+        <tr r="L55" s="15"/>
+        <tr r="J72" s="15"/>
+        <tr r="I63" s="15"/>
+        <tr r="H54" s="15"/>
+        <tr r="G72" s="15"/>
+        <tr r="K66" s="15"/>
+        <tr r="J57" s="15"/>
+        <tr r="K69" s="15"/>
+        <tr r="J60" s="15"/>
+        <tr r="I71" s="15"/>
+        <tr r="H62" s="15"/>
+        <tr r="G53" s="15"/>
+        <tr r="J67" s="15"/>
+        <tr r="J65" s="15"/>
+        <tr r="I56" s="15"/>
+        <tr r="J68" s="15"/>
+        <tr r="I59" s="15"/>
+        <tr r="G64" s="15"/>
+        <tr r="L71" s="15"/>
+        <tr r="I65" s="15"/>
+        <tr r="J53" s="15"/>
+        <tr r="H61" s="15"/>
+        <tr r="G52" s="15"/>
+        <tr r="H68" s="15"/>
+        <tr r="G69" s="15"/>
+        <tr r="F60" s="15"/>
+        <tr r="F70" s="15"/>
+        <tr r="I72" s="15"/>
+        <tr r="H63" s="15"/>
+        <tr r="G54" s="15"/>
+        <tr r="H66" s="15"/>
+        <tr r="G57" s="15"/>
+        <tr r="J58" s="15"/>
+        <tr r="J63" s="15"/>
+        <tr r="H56" s="15"/>
+        <tr r="F57" s="15"/>
+        <tr r="J70" s="15"/>
+        <tr r="I67" s="15"/>
+        <tr r="L69" s="15"/>
+        <tr r="K63" s="15"/>
+        <tr r="G56" s="15"/>
+        <tr r="H69" s="15"/>
+        <tr r="G60" s="15"/>
+        <tr r="J69" s="15"/>
+        <tr r="F68" s="15"/>
+        <tr r="L58" s="15"/>
+        <tr r="J66" s="15"/>
+        <tr r="H71" s="15"/>
+        <tr r="G62" s="15"/>
+        <tr r="F53" s="15"/>
+        <tr r="G65" s="15"/>
+        <tr r="F56" s="15"/>
+        <tr r="G71" s="15"/>
+        <tr r="I52" s="15"/>
+        <tr r="K67" s="15"/>
+        <tr r="I62" s="15"/>
+        <tr r="G61" s="15"/>
+        <tr r="H58" s="15"/>
+        <tr r="L52" s="15"/>
+        <tr r="F66" s="15"/>
+        <tr r="I58" s="15"/>
+        <tr r="I70" s="15"/>
+        <tr r="I68" s="15"/>
+        <tr r="L60" s="15"/>
+        <tr r="K71" s="15"/>
+        <tr r="L64" s="15"/>
+        <tr r="H72" s="15"/>
+        <tr r="H65" s="15"/>
+        <tr r="F65" s="15"/>
+        <tr r="H60" s="15"/>
+        <tr r="I57" s="15"/>
+        <tr r="K52" s="15"/>
+        <tr r="G67" s="15"/>
+        <tr r="G68" s="15"/>
+        <tr r="F59" s="15"/>
+        <tr r="G66" s="15"/>
+        <tr r="I61" s="15"/>
+        <tr r="L66" s="15"/>
+        <tr r="K57" s="15"/>
+        <tr r="G63" s="15"/>
+        <tr r="G70" s="15"/>
+        <tr r="F61" s="15"/>
+        <tr r="K68" s="15"/>
+        <tr r="F64" s="15"/>
+        <tr r="L54" s="15"/>
+        <tr r="I60" s="15"/>
+        <tr r="K60" s="15"/>
+        <tr r="L61" s="15"/>
+        <tr r="L68" s="15"/>
+        <tr r="K62" s="15"/>
+        <tr r="K70" s="15"/>
+        <tr r="F67" s="15"/>
+        <tr r="L57" s="15"/>
+        <tr r="J61" s="15"/>
+        <tr r="F58" s="15"/>
+        <tr r="K65" s="15"/>
+        <tr r="J56" s="15"/>
+        <tr r="K59" s="15"/>
+        <tr r="F69" s="15"/>
+        <tr r="L59" s="15"/>
+        <tr r="F72" s="15"/>
+        <tr r="L62" s="15"/>
+        <tr r="K53" s="15"/>
+        <tr r="F55" s="15"/>
+        <tr r="K72" s="15"/>
+        <tr r="L53" s="15"/>
+        <tr r="J71" s="15"/>
+        <tr r="H70" s="15"/>
+        <tr r="I64" s="15"/>
+        <tr r="F54" s="15"/>
+        <tr r="H64" s="15"/>
+        <tr r="H59" s="15"/>
+        <tr r="F71" s="15"/>
+        <tr r="H67" s="15"/>
+        <tr r="G59" s="15"/>
+        <tr r="L65" s="15"/>
+        <tr r="K56" s="15"/>
+        <tr r="G58" s="15"/>
+        <tr r="I53" s="15"/>
+        <tr r="J64" s="15"/>
+        <tr r="I55" s="15"/>
+        <tr r="G55" s="15"/>
+        <tr r="L67" s="15"/>
+        <tr r="K58" s="15"/>
+        <tr r="L70" s="15"/>
+        <tr r="K61" s="15"/>
+        <tr r="J52" s="15"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>9e932ece-faea-47ce-942b-cd239c818e01</stp>
+        <stp>f32ca3f5-4f15-4e70-bb30-e1d31d51f35f</stp>
+        <tr r="H37" s="24"/>
+        <tr r="F42" s="24"/>
+        <tr r="F34" s="24"/>
+        <tr r="H33" s="24"/>
+        <tr r="I40" s="24"/>
+        <tr r="I44" s="24"/>
+        <tr r="G39" s="24"/>
+        <tr r="I41" s="24"/>
+        <tr r="F33" s="24"/>
+        <tr r="I35" s="24"/>
+        <tr r="H41" s="24"/>
+        <tr r="E37" s="24"/>
+        <tr r="I38" s="24"/>
+        <tr r="F37" s="24"/>
+        <tr r="H35" s="24"/>
+        <tr r="F39" s="24"/>
+        <tr r="E44" s="24"/>
+        <tr r="I39" s="24"/>
+        <tr r="G38" s="24"/>
+        <tr r="G44" s="24"/>
+        <tr r="G36" s="24"/>
+        <tr r="I34" s="24"/>
+        <tr r="E41" s="24"/>
+        <tr r="H39" s="24"/>
+        <tr r="I33" s="24"/>
+        <tr r="F38" s="24"/>
+        <tr r="E35" s="24"/>
+        <tr r="F43" s="24"/>
+        <tr r="E43" s="24"/>
+        <tr r="F36" s="24"/>
+        <tr r="E36" s="24"/>
+        <tr r="F44" s="24"/>
+        <tr r="H44" s="24"/>
+        <tr r="I43" s="24"/>
+        <tr r="E39" s="24"/>
+        <tr r="G35" s="24"/>
+        <tr r="G41" s="24"/>
+        <tr r="F35" s="24"/>
+        <tr r="G37" s="24"/>
+        <tr r="I37" s="24"/>
+        <tr r="G43" s="24"/>
+        <tr r="F41" s="24"/>
+        <tr r="H38" s="24"/>
+        <tr r="G33" s="24"/>
+        <tr r="E38" s="24"/>
+        <tr r="E40" s="24"/>
+        <tr r="E33" s="24"/>
+        <tr r="G34" s="24"/>
+        <tr r="I36" s="24"/>
+        <tr r="H34" s="24"/>
+        <tr r="E42" s="24"/>
         <tr r="G42" s="24"/>
+        <tr r="H40" s="24"/>
+        <tr r="F40" s="24"/>
+        <tr r="H42" s="24"/>
+        <tr r="G40" s="24"/>
+        <tr r="E34" s="24"/>
+        <tr r="H43" s="24"/>
+        <tr r="I42" s="24"/>
         <tr r="H36" s="24"/>
-        <tr r="H33" s="24"/>
-        <tr r="F44" s="24"/>
-        <tr r="H41" s="24"/>
-        <tr r="E44" s="24"/>
-        <tr r="E33" s="24"/>
-        <tr r="I37" s="24"/>
-        <tr r="H40" s="24"/>
-        <tr r="H37" s="24"/>
-        <tr r="F43" s="24"/>
-        <tr r="I41" s="24"/>
-        <tr r="G35" s="24"/>
-        <tr r="I39" s="24"/>
-        <tr r="G41" s="24"/>
-        <tr r="E42" s="24"/>
-        <tr r="F40" s="24"/>
-        <tr r="H39" s="24"/>
-        <tr r="I40" s="24"/>
-        <tr r="H44" s="24"/>
-        <tr r="E40" s="24"/>
-        <tr r="G38" s="24"/>
-        <tr r="G34" s="24"/>
-        <tr r="G43" s="24"/>
-        <tr r="H42" s="24"/>
-        <tr r="F42" s="24"/>
-        <tr r="E43" s="24"/>
-        <tr r="F33" s="24"/>
-        <tr r="E37" s="24"/>
-        <tr r="G44" s="24"/>
-        <tr r="F35" s="24"/>
-        <tr r="F41" s="24"/>
-        <tr r="G40" s="24"/>
-        <tr r="I33" s="24"/>
-        <tr r="I44" s="24"/>
-        <tr r="I43" s="24"/>
-        <tr r="I38" s="24"/>
-        <tr r="G36" s="24"/>
-        <tr r="I36" s="24"/>
-        <tr r="H38" s="24"/>
-        <tr r="E34" s="24"/>
-        <tr r="F38" s="24"/>
-        <tr r="F36" s="24"/>
-        <tr r="I35" s="24"/>
-        <tr r="F37" s="24"/>
-        <tr r="I34" s="24"/>
-        <tr r="G37" s="24"/>
-        <tr r="G33" s="24"/>
-        <tr r="H43" s="24"/>
-        <tr r="F34" s="24"/>
-        <tr r="E36" s="24"/>
-        <tr r="H35" s="24"/>
-        <tr r="E41" s="24"/>
-        <tr r="H34" s="24"/>
-        <tr r="E38" s="24"/>
-        <tr r="I42" s="24"/>
-        <tr r="E35" s="24"/>
-        <tr r="G39" s="24"/>
-        <tr r="E39" s="24"/>
-        <tr r="F39" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv.06c7f756d18f45788a0e75699d42f1a3">
+    <main first="rtdsrv.0900def3d54d44e180ac2deb56f9e2b8">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>c5a39983-bbc2-4dc4-a6ca-db033893be1d</stp>
-        <tr r="F38" s="31"/>
-        <tr r="I40" s="31"/>
-        <tr r="I38" s="31"/>
-        <tr r="G42" s="31"/>
-        <tr r="F40" s="31"/>
-        <tr r="G40" s="31"/>
-        <tr r="H40" s="31"/>
-        <tr r="G41" s="31"/>
-        <tr r="F43" s="31"/>
-        <tr r="E44" s="31"/>
-        <tr r="F44" s="31"/>
-        <tr r="I42" s="31"/>
-        <tr r="I41" s="31"/>
-        <tr r="E42" s="31"/>
-        <tr r="F42" s="31"/>
-        <tr r="E43" s="31"/>
-        <tr r="I44" s="31"/>
-        <tr r="H45" s="31"/>
-        <tr r="I45" s="31"/>
-        <tr r="E40" s="31"/>
-        <tr r="H41" s="31"/>
-        <tr r="I34" s="31"/>
-        <tr r="G37" s="31"/>
-        <tr r="E41" s="31"/>
-        <tr r="H38" s="31"/>
-        <tr r="E39" s="31"/>
-        <tr r="H42" s="31"/>
-        <tr r="G43" s="31"/>
-        <tr r="H43" s="31"/>
-        <tr r="I43" s="31"/>
-        <tr r="H44" s="31"/>
-        <tr r="G34" s="31"/>
-        <tr r="H34" s="31"/>
-        <tr r="E45" s="31"/>
-        <tr r="F45" s="31"/>
-        <tr r="G45" s="31"/>
-        <tr r="F35" s="31"/>
-        <tr r="E36" s="31"/>
-        <tr r="F36" s="31"/>
-        <tr r="G36" s="31"/>
-        <tr r="H37" s="31"/>
-        <tr r="E34" s="31"/>
-        <tr r="F34" s="31"/>
-        <tr r="E35" s="31"/>
-        <tr r="I36" s="31"/>
-        <tr r="I37" s="31"/>
-        <tr r="E38" s="31"/>
-        <tr r="G35" s="31"/>
-        <tr r="H35" s="31"/>
-        <tr r="I35" s="31"/>
-        <tr r="H36" s="31"/>
-        <tr r="G38" s="31"/>
-        <tr r="F39" s="31"/>
-        <tr r="G39" s="31"/>
-        <tr r="H39" s="31"/>
-        <tr r="F37" s="31"/>
-        <tr r="F41" s="31"/>
-        <tr r="G44" s="31"/>
-        <tr r="E37" s="31"/>
-        <tr r="I39" s="31"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.06c7f756d18f45788a0e75699d42f1a3">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c2ef5bf0-3cbc-4ac9-ba16-0a05c63c92ec</stp>
-        <tr r="G38" s="28"/>
-        <tr r="I41" s="28"/>
-        <tr r="F35" s="28"/>
-        <tr r="E43" s="28"/>
-        <tr r="G45" s="28"/>
-        <tr r="G40" s="28"/>
-        <tr r="G34" s="28"/>
-        <tr r="E40" s="28"/>
-        <tr r="I43" s="28"/>
-        <tr r="G41" s="28"/>
-        <tr r="H42" s="28"/>
-        <tr r="E34" s="28"/>
-        <tr r="E35" s="28"/>
-        <tr r="F45" s="28"/>
-        <tr r="I36" s="28"/>
-        <tr r="F42" s="28"/>
-        <tr r="H34" s="28"/>
-        <tr r="G42" s="28"/>
-        <tr r="I45" s="28"/>
-        <tr r="E36" s="28"/>
-        <tr r="H44" s="28"/>
-        <tr r="I39" s="28"/>
-        <tr r="E41" s="28"/>
-        <tr r="E45" s="28"/>
-        <tr r="F41" s="28"/>
-        <tr r="E42" s="28"/>
-        <tr r="F38" s="28"/>
-        <tr r="H40" s="28"/>
-        <tr r="I34" s="28"/>
-        <tr r="H41" s="28"/>
-        <tr r="H43" s="28"/>
-        <tr r="G35" s="28"/>
-        <tr r="F44" s="28"/>
-        <tr r="H36" s="28"/>
-        <tr r="H38" s="28"/>
-        <tr r="G44" s="28"/>
-        <tr r="G39" s="28"/>
-        <tr r="F40" s="28"/>
-        <tr r="E38" s="28"/>
-        <tr r="I38" s="28"/>
-        <tr r="E44" s="28"/>
-        <tr r="E39" s="28"/>
-        <tr r="H35" s="28"/>
-        <tr r="H37" s="28"/>
-        <tr r="I42" s="28"/>
-        <tr r="I37" s="28"/>
-        <tr r="E37" s="28"/>
-        <tr r="G36" s="28"/>
-        <tr r="F37" s="28"/>
-        <tr r="I40" s="28"/>
-        <tr r="G37" s="28"/>
-        <tr r="F43" s="28"/>
-        <tr r="H39" s="28"/>
-        <tr r="F36" s="28"/>
-        <tr r="I44" s="28"/>
-        <tr r="H45" s="28"/>
-        <tr r="G43" s="28"/>
-        <tr r="F39" s="28"/>
-        <tr r="I35" s="28"/>
-        <tr r="F34" s="28"/>
+        <stp>a3e99138-d1ca-4943-ab10-f80e65196439</stp>
+        <tr r="H42" s="32"/>
+        <tr r="G34" s="32"/>
+        <tr r="H43" s="32"/>
+        <tr r="I35" s="32"/>
+        <tr r="I39" s="32"/>
+        <tr r="H39" s="32"/>
+        <tr r="G41" s="32"/>
+        <tr r="I42" s="32"/>
+        <tr r="F37" s="32"/>
+        <tr r="E39" s="32"/>
+        <tr r="F39" s="32"/>
+        <tr r="H44" s="32"/>
+        <tr r="G35" s="32"/>
+        <tr r="F41" s="32"/>
+        <tr r="G44" s="32"/>
+        <tr r="I38" s="32"/>
+        <tr r="H40" s="32"/>
+        <tr r="I40" s="32"/>
+        <tr r="G36" s="32"/>
+        <tr r="H36" s="32"/>
+        <tr r="E34" s="32"/>
+        <tr r="E40" s="32"/>
+        <tr r="F34" s="32"/>
+        <tr r="H41" s="32"/>
+        <tr r="G43" s="32"/>
+        <tr r="E41" s="32"/>
+        <tr r="F36" s="32"/>
+        <tr r="H37" s="32"/>
+        <tr r="I45" s="32"/>
+        <tr r="F35" s="32"/>
+        <tr r="G39" s="32"/>
+        <tr r="G40" s="32"/>
+        <tr r="F42" s="32"/>
+        <tr r="I36" s="32"/>
+        <tr r="I41" s="32"/>
+        <tr r="F44" s="32"/>
+        <tr r="E43" s="32"/>
+        <tr r="E42" s="32"/>
+        <tr r="I43" s="32"/>
+        <tr r="E44" s="32"/>
+        <tr r="F40" s="32"/>
+        <tr r="E38" s="32"/>
+        <tr r="E36" s="32"/>
+        <tr r="F43" s="32"/>
+        <tr r="G37" s="32"/>
+        <tr r="I44" s="32"/>
+        <tr r="H38" s="32"/>
+        <tr r="E35" s="32"/>
+        <tr r="G42" s="32"/>
+        <tr r="I37" s="32"/>
+        <tr r="G38" s="32"/>
+        <tr r="E45" s="32"/>
+        <tr r="I34" s="32"/>
+        <tr r="E37" s="32"/>
+        <tr r="F45" s="32"/>
+        <tr r="G45" s="32"/>
+        <tr r="H45" s="32"/>
+        <tr r="H35" s="32"/>
+        <tr r="H34" s="32"/>
+        <tr r="F38" s="32"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>e9d4db78-221d-4302-9ed9-538eafa72c0c</stp>
-        <tr r="G57" s="31"/>
-        <tr r="L55" s="31"/>
-        <tr r="H53" s="31"/>
-        <tr r="L57" s="31"/>
-        <tr r="H54" s="31"/>
-        <tr r="K57" s="31"/>
-        <tr r="I53" s="31"/>
-        <tr r="J53" s="31"/>
-        <tr r="F56" s="31"/>
-        <tr r="H55" s="31"/>
-        <tr r="L54" s="31"/>
-        <tr r="I54" s="31"/>
-        <tr r="J54" s="31"/>
-        <tr r="K55" s="31"/>
-        <tr r="F54" s="31"/>
-        <tr r="E57" s="31"/>
-        <tr r="F53" s="31"/>
-        <tr r="E56" s="31"/>
-        <tr r="K56" s="31"/>
-        <tr r="F55" s="31"/>
-        <tr r="G53" s="31"/>
-        <tr r="H56" s="31"/>
-        <tr r="L56" s="31"/>
-        <tr r="I55" s="31"/>
-        <tr r="J55" s="31"/>
-        <tr r="G54" s="31"/>
-        <tr r="H57" s="31"/>
-        <tr r="E53" s="31"/>
-        <tr r="I56" s="31"/>
-        <tr r="J56" s="31"/>
-        <tr r="K53" s="31"/>
-        <tr r="G55" s="31"/>
-        <tr r="E54" s="31"/>
-        <tr r="I57" s="31"/>
-        <tr r="J57" s="31"/>
-        <tr r="F57" s="31"/>
-        <tr r="G56" s="31"/>
-        <tr r="K54" s="31"/>
-        <tr r="E55" s="31"/>
-        <tr r="L53" s="31"/>
-        <tr r="L54" s="20"/>
-        <tr r="G57" s="20"/>
-        <tr r="F53" s="20"/>
-        <tr r="J57" s="20"/>
-        <tr r="E57" s="20"/>
-        <tr r="J56" s="20"/>
-        <tr r="K53" s="20"/>
-        <tr r="E56" s="20"/>
-        <tr r="L53" s="20"/>
-        <tr r="J55" s="20"/>
-        <tr r="H57" s="20"/>
-        <tr r="E55" s="20"/>
-        <tr r="J54" s="20"/>
-        <tr r="F57" s="20"/>
-        <tr r="E54" s="20"/>
-        <tr r="K57" s="20"/>
-        <tr r="I57" s="20"/>
-        <tr r="I56" s="20"/>
-        <tr r="H55" s="20"/>
-        <tr r="K56" s="20"/>
-        <tr r="H54" s="20"/>
-        <tr r="F55" s="20"/>
-        <tr r="L57" s="20"/>
-        <tr r="K55" s="20"/>
-        <tr r="I55" s="20"/>
-        <tr r="L55" s="20"/>
-        <tr r="G56" s="20"/>
-        <tr r="G55" s="20"/>
-        <tr r="G54" s="20"/>
-        <tr r="J53" s="20"/>
-        <tr r="H56" s="20"/>
-        <tr r="F56" s="20"/>
-        <tr r="E53" s="20"/>
-        <tr r="H53" s="20"/>
-        <tr r="F54" s="20"/>
-        <tr r="L56" s="20"/>
-        <tr r="K54" s="20"/>
-        <tr r="I54" s="20"/>
-        <tr r="I53" s="20"/>
-        <tr r="G53" s="20"/>
+        <stp>30fb0991-046a-4ea1-a26f-b22d54a0ee7d</stp>
+        <tr r="G40" s="28"/>
+        <tr r="H41" s="28"/>
+        <tr r="F36" s="28"/>
+        <tr r="H43" s="28"/>
+        <tr r="E37" s="28"/>
+        <tr r="E45" s="28"/>
+        <tr r="I38" s="28"/>
+        <tr r="G38" s="28"/>
+        <tr r="I43" s="28"/>
+        <tr r="H34" s="28"/>
+        <tr r="F41" s="28"/>
+        <tr r="F44" s="28"/>
+        <tr r="E44" s="28"/>
+        <tr r="F37" s="28"/>
+        <tr r="G43" s="28"/>
+        <tr r="I41" s="28"/>
+        <tr r="G41" s="28"/>
+        <tr r="G42" s="28"/>
+        <tr r="E42" s="28"/>
+        <tr r="H36" s="28"/>
+        <tr r="E39" s="28"/>
+        <tr r="I40" s="28"/>
+        <tr r="F39" s="28"/>
+        <tr r="G34" s="28"/>
+        <tr r="F45" s="28"/>
+        <tr r="F40" s="28"/>
+        <tr r="E41" s="28"/>
+        <tr r="E40" s="28"/>
+        <tr r="G36" s="28"/>
+        <tr r="F35" s="28"/>
+        <tr r="F38" s="28"/>
+        <tr r="H35" s="28"/>
+        <tr r="E43" s="28"/>
+        <tr r="E36" s="28"/>
+        <tr r="H40" s="28"/>
+        <tr r="G44" s="28"/>
+        <tr r="H37" s="28"/>
+        <tr r="F43" s="28"/>
+        <tr r="F34" s="28"/>
+        <tr r="I39" s="28"/>
+        <tr r="I37" s="28"/>
+        <tr r="E38" s="28"/>
+        <tr r="I44" s="28"/>
+        <tr r="F42" s="28"/>
+        <tr r="G35" s="28"/>
+        <tr r="H45" s="28"/>
+        <tr r="H42" s="28"/>
+        <tr r="I45" s="28"/>
+        <tr r="H38" s="28"/>
+        <tr r="G37" s="28"/>
+        <tr r="I35" s="28"/>
+        <tr r="E34" s="28"/>
+        <tr r="G45" s="28"/>
+        <tr r="E35" s="28"/>
+        <tr r="H44" s="28"/>
+        <tr r="I34" s="28"/>
+        <tr r="G39" s="28"/>
+        <tr r="I42" s="28"/>
+        <tr r="H39" s="28"/>
+        <tr r="I36" s="28"/>
       </tp>
     </main>
   </volType>
@@ -2275,72 +2339,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1333499</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1042147</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>73798</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E4E45B-B26A-4185-8F8A-09F071A512F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12582524" y="554132"/>
-          <a:ext cx="2127998" cy="1272266"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>74083</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2403,7 +2401,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2469,7 +2467,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2535,7 +2533,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2601,7 +2599,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2645,6 +2643,72 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="12380383" y="413435"/>
+          <a:ext cx="2087036" cy="1377041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751419</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83312C16-7E1F-46B5-B2ED-46C6CB627F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13875808" y="413435"/>
           <a:ext cx="2087036" cy="1377041"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3001,72 +3065,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>74083</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>751419</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>37876</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F4E272-92EB-42B0-A33D-FD53580A7EA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13875808" y="413435"/>
-          <a:ext cx="2087036" cy="1377041"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1030942</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -3129,7 +3127,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3174,6 +3172,72 @@
         <a:xfrm>
           <a:off x="12380383" y="413435"/>
           <a:ext cx="2087036" cy="1377041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1333499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042147</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E4E45B-B26A-4185-8F8A-09F071A512F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12582524" y="554132"/>
+          <a:ext cx="2127998" cy="1272266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4021,829 +4085,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8B65CA-80A9-45EB-9343-6E81B58B3E11}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:N44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" customWidth="1"/>
-    <col min="3" max="3" width="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="20" t="e">
-        <f t="array" aca="1" ref="E27" ca="1">_xll.fbnPortfoliosAdd_Template()</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="H29" s="46">
-        <f ca="1">NOW()-365</f>
-        <v>43473.456930324071</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="73" t="str">
-        <f t="array" aca="1" ref="M29:M33" ca="1">_xll.flPortfoliosAdd(F25,E28:L33)</f>
-        <v>Entity already exists</v>
-      </c>
-      <c r="N29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="9">
-        <v>2</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>385</v>
-      </c>
-      <c r="H30" s="46">
-        <f ca="1">NOW()-365</f>
-        <v>43473.456930324071</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="L30" s="24"/>
-      <c r="M30" s="73" t="str">
-        <f ca="1"/>
-        <v>Entity already exists</v>
-      </c>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="9">
-        <v>3</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="H31" s="46">
-        <f ca="1">NOW()-365</f>
-        <v>43473.456930324071</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="73" t="str">
-        <f ca="1"/>
-        <v>Entity already exists</v>
-      </c>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="9">
-        <v>4</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>389</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>391</v>
-      </c>
-      <c r="H32" s="46">
-        <f ca="1">NOW()-365</f>
-        <v>43473.456930324071</v>
-      </c>
-      <c r="I32" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="53"/>
-      <c r="K32" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="73" t="str">
-        <f ca="1"/>
-        <v>Entity already exists</v>
-      </c>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="9">
-        <v>5</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="H33" s="46">
-        <f ca="1">NOW()-365</f>
-        <v>43473.456930324071</v>
-      </c>
-      <c r="I33" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="L33" s="24"/>
-      <c r="M33" s="73" t="str">
-        <f ca="1"/>
-        <v>Entity already exists</v>
-      </c>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="9">
-        <v>6</v>
-      </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="9">
-        <v>7</v>
-      </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="9">
-        <v>8</v>
-      </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="9">
-        <v>9</v>
-      </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="9">
-        <v>10</v>
-      </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-    </row>
-  </sheetData>
-  <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Base Currency" sqref="L28:M28" xr:uid="{6D411331-58BD-4601-AF79-D42E1E359CA0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Created" sqref="K28" xr:uid="{574AD2A8-D326-40FB-9BEE-C0DD62B34725}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Description" sqref="J28" xr:uid="{A17D583A-FB53-467A-9042-C80CBF3CA292}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Display Name" sqref="I28" xr:uid="{D88040F2-8D63-41C4-8C5C-7898E33F132D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sub-Holding Keys" sqref="H28" xr:uid="{21F65EE0-D128-4684-8D1E-A37063EB25FF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Accounting Method" sqref="G28" xr:uid="{452380A9-1E65-45AA-A53B-3412ED339AA3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Corporate Action Source" sqref="F28" xr:uid="{A57C0CE8-1B54-41C9-9C2C-67F069D2202C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="E28 E42:H45" xr:uid="{C953DDE1-26C7-4D22-AC28-FA39A8515BA4}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB1EC2A-1E50-4FE8-BBA0-6A8CE31748E7}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -4851,7 +4092,7 @@
   <dimension ref="B1:Q37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD37"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5163,7 +4404,7 @@
       </c>
       <c r="F22" s="59">
         <f ca="1">NOW()-4</f>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="2"/>
@@ -5289,13 +4530,13 @@
       </c>
       <c r="M26" s="57">
         <f ca="1">$F$22</f>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
       <c r="P26" s="33" t="str">
         <f ca="1">_xll.flQuotesAdd(F20,E25:O33)</f>
-        <v>Added 8 quote(s) as at time 2020-01-08 10:57:57Z</v>
+        <v>Added 8 quote(s) as at time 2020-01-13 11:18:11Z</v>
       </c>
       <c r="Q26" s="2"/>
     </row>
@@ -5331,7 +4572,7 @@
       </c>
       <c r="M27" s="57">
         <f t="shared" ref="M27:M33" ca="1" si="1">$F$22</f>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
@@ -5370,7 +4611,7 @@
       </c>
       <c r="M28" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
@@ -5409,7 +4650,7 @@
       </c>
       <c r="M29" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="N29" s="57"/>
       <c r="O29" s="57"/>
@@ -5447,7 +4688,7 @@
       </c>
       <c r="M30" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
@@ -5485,7 +4726,7 @@
       </c>
       <c r="M31" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
@@ -5523,7 +4764,7 @@
       </c>
       <c r="M32" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
@@ -5561,7 +4802,7 @@
       </c>
       <c r="M33" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
@@ -5651,15 +4892,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C47B5CC-E305-456F-BDF8-24D373946877}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:M94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6013,7 +5254,7 @@
       </c>
       <c r="F25" s="46">
         <f ca="1">NOW()-4</f>
-        <v>43834.456929513886</v>
+        <v>43839.470961226849</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>299</v>
@@ -6097,7 +5338,7 @@
         <f>'Securitising base fund'!K41</f>
         <v>LusidInstrumentId</v>
       </c>
-      <c r="F29" s="83" t="str">
+      <c r="F29" s="81" t="str">
         <f>'Securitising base fund'!K42</f>
         <v>LUID_NAM9ARDX</v>
       </c>
@@ -6271,7 +5512,7 @@
       </c>
       <c r="F39" s="46">
         <f ca="1">NOW()-4</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>299</v>
@@ -6355,7 +5596,7 @@
         <f>E29</f>
         <v>LusidInstrumentId</v>
       </c>
-      <c r="F43" s="83" t="str">
+      <c r="F43" s="81" t="str">
         <f>F29</f>
         <v>LUID_NAM9ARDX</v>
       </c>
@@ -6529,7 +5770,7 @@
       </c>
       <c r="F53" s="46">
         <f ca="1">NOW()-4</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>299</v>
@@ -6613,7 +5854,7 @@
         <f>E43</f>
         <v>LusidInstrumentId</v>
       </c>
-      <c r="F57" s="83" t="str">
+      <c r="F57" s="81" t="str">
         <f>F43</f>
         <v>LUID_NAM9ARDX</v>
       </c>
@@ -6801,7 +6042,7 @@
       </c>
       <c r="F68" s="46">
         <f ca="1">NOW()-4</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>299</v>
@@ -6885,7 +6126,7 @@
         <f>E57</f>
         <v>LusidInstrumentId</v>
       </c>
-      <c r="F72" s="83" t="str">
+      <c r="F72" s="81" t="str">
         <f>F57</f>
         <v>LUID_NAM9ARDX</v>
       </c>
@@ -7087,7 +6328,7 @@
       </c>
       <c r="F84" s="46">
         <f ca="1">NOW()-4</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="G84" s="36" t="s">
         <v>299</v>
@@ -7171,7 +6412,7 @@
         <f>E72</f>
         <v>LusidInstrumentId</v>
       </c>
-      <c r="F88" s="83" t="str">
+      <c r="F88" s="81" t="str">
         <f>F72</f>
         <v>LUID_NAM9ARDX</v>
       </c>
@@ -7289,7 +6530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60700240-7F55-40F6-8D78-73280BD7F5A5}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -7297,7 +6538,7 @@
   <dimension ref="B1:R72"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F27"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7666,7 +6907,7 @@
         <v>319</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -7703,7 +6944,7 @@
       </c>
       <c r="F27" s="59">
         <f ca="1">'Upserting market quotes'!F26</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -7849,7 +7090,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="63" t="str">
         <f ca="1"/>
-        <v>USD offering of UK_High_Growth_Equities_Fund_base_fund</v>
+        <v>AUD offering of UK_High_Growth_Equities_Fund_base_fund</v>
       </c>
       <c r="F35" s="71">
         <f ca="1"/>
@@ -7943,7 +7184,7 @@
       </c>
       <c r="L37" s="69">
         <f ca="1">F27</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="M37" s="70"/>
       <c r="N37" s="70"/>
@@ -8088,12 +7329,12 @@
       <c r="K41" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="L41" s="81" t="s">
+      <c r="L41" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
@@ -8123,10 +7364,10 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="32"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
@@ -8156,10 +7397,10 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="32"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
@@ -8189,10 +7430,10 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="32"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
@@ -8222,10 +7463,10 @@
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="32"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
@@ -8240,10 +7481,10 @@
       <c r="I46" s="72"/>
       <c r="J46" s="2"/>
       <c r="K46" s="32"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
@@ -8258,10 +7499,10 @@
       <c r="I47" s="72"/>
       <c r="J47" s="2"/>
       <c r="K47" s="32"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -8276,10 +7517,10 @@
       <c r="I48" s="72"/>
       <c r="J48" s="2"/>
       <c r="K48" s="32"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
@@ -8329,7 +7570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7EC975-4C1B-47B5-B33B-B9D5D122F392}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -8337,7 +7578,7 @@
   <dimension ref="B1:R97"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8691,7 +7932,7 @@
       </c>
       <c r="F25" s="46">
         <f ca="1">NOW()-3</f>
-        <v>43835.456926388892</v>
+        <v>43840.470956481484</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>299</v>
@@ -8809,11 +8050,11 @@
       </c>
       <c r="I29" s="57">
         <f ca="1">F25</f>
-        <v>43835.456926388892</v>
-      </c>
-      <c r="J29" s="84">
+        <v>43840.470956481484</v>
+      </c>
+      <c r="J29" s="82">
         <f ca="1">I29</f>
-        <v>43835.456926388892</v>
+        <v>43840.470956481484</v>
       </c>
       <c r="K29" s="22">
         <v>1000000</v>
@@ -9290,7 +8531,7 @@
       <c r="G97" s="35"/>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Settlement date" sqref="M39" xr:uid="{C115BF6B-B4AB-47B0-8C51-AB4DB7AB08D2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Purchase date" sqref="L39" xr:uid="{C1315233-C685-41DC-9E7C-96926F276556}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Price" sqref="K39" xr:uid="{F3631455-E272-4210-ADBA-256373722ECA}"/>
@@ -9298,12 +8539,10 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Currency" sqref="I39" xr:uid="{1A40C113-14EC-4E34-9EDD-DF0106A787DB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cost" sqref="H39" xr:uid="{FB2E7FFE-5712-4835-B960-5232DA532B2A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Units" sqref="G39" xr:uid="{59446ADB-FE62-407A-930A-446173734CBE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument identifiers as single value or comma delimited list" sqref="F39" xr:uid="{FA1C7209-1768-4523-ACD1-EB2558E0FBE6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument identifier types as single value or comma delimited list" sqref="E39" xr:uid="{6E138E0F-E909-4742-A819-BFFE2F2382FD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument identifiers as single value or comma delimited list" sqref="F39 H27" xr:uid="{FA1C7209-1768-4523-ACD1-EB2558E0FBE6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument identifier types as single value or comma delimited list" sqref="E39 G27" xr:uid="{6E138E0F-E909-4742-A819-BFFE2F2382FD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique identifier for the transaction." sqref="E27" xr:uid="{21C5F876-A465-4EDB-AAA0-6DF664DBB2A5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The type of the transaction e.g. 'Buy', 'Sell'. The transaction type should have been pre-configured via the System Configuration API endpoint. If it hasn't been pre-configured the transaction will still be updated or inserted however you will be unab..." sqref="F27" xr:uid="{0BD65924-B4F0-44EA-BC5E-C0D92F5E0A71}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument identifier types as single value or comma delimited list" sqref="G27" xr:uid="{1B9A14D4-EC4B-45BB-9DE3-34F4DBF3F75D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument identifiers as single value or comma delimited list" sqref="H27" xr:uid="{B58E0F17-D292-455F-9F94-65C1793CE79D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The date of the transaction." sqref="I27" xr:uid="{33889A9B-F4B6-47D7-814B-1CAA6DF94280}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The settlement date of the transaction." sqref="J27" xr:uid="{6FAC6A82-5E20-4629-8674-60DA32A11DE7}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The number of units transacted in the associated instrument." sqref="K27" xr:uid="{A4BFA247-A43C-488C-A472-650D7F323E0A}"/>
@@ -9316,7 +8555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C570FE9A-4904-4D4D-ABD3-809A044EBB44}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -9324,7 +8563,7 @@
   <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9701,11 +8940,9 @@
       </c>
       <c r="F24" s="46">
         <f ca="1">NOW()-3</f>
-        <v>43835.456918518517</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>299</v>
-      </c>
+        <v>43840.470953819444</v>
+      </c>
+      <c r="G24" s="36"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -9827,13 +9064,13 @@
       </c>
       <c r="M28" s="57">
         <f ca="1">F24</f>
-        <v>43835.456918518517</v>
+        <v>43840.470953819444</v>
       </c>
       <c r="N28" s="33"/>
       <c r="O28" s="33"/>
       <c r="P28" s="33" t="str">
         <f ca="1">_xll.flQuotesAdd(F20,E27:O32)</f>
-        <v>Added 4 quote(s) as at time 2020-01-08 10:57:57Z</v>
+        <v>Added 4 quote(s) as at time 2020-01-13 11:18:11Z</v>
       </c>
       <c r="Q28" s="2"/>
     </row>
@@ -9867,7 +9104,7 @@
       </c>
       <c r="M29" s="57">
         <f ca="1">M28</f>
-        <v>43835.456918518517</v>
+        <v>43840.470953819444</v>
       </c>
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
@@ -9904,7 +9141,7 @@
       </c>
       <c r="M30" s="57">
         <f ca="1">M29</f>
-        <v>43835.456918518517</v>
+        <v>43840.470953819444</v>
       </c>
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
@@ -9941,7 +9178,7 @@
       </c>
       <c r="M31" s="57">
         <f ca="1">M30</f>
-        <v>43835.456918518517</v>
+        <v>43840.470953819444</v>
       </c>
       <c r="N31" s="57"/>
       <c r="O31" s="57"/>
@@ -10126,6 +9363,1036 @@
   <hyperlinks>
     <hyperlink ref="K15" r:id="rId1" display="https://support.lusid.com/what-is-a-recipe-and-how-are-they-used" xr:uid="{9FF7AFDE-B700-44E5-A466-176B7BF83C8C}"/>
     <hyperlink ref="K16" r:id="rId2" location="operation/GetAggregationByPortfolio" display="https://docs.lusid.com/ - operation/GetAggregationByPortfolio" xr:uid="{449D7308-D075-4062-9578-02AC7C4E4484}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814B9509-1D32-4BCC-8EA0-5C7E7B05272E}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B1:R72"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="K15" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="K16" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="2:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="2:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F27" s="84">
+        <f ca="1">'Re-valuing base fund'!F24</f>
+        <v>43840.470953819444</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="2:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+      <c r="C32" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="61" t="str">
+        <f t="array" ref="E34:I45" ca="1">_xll.flAggregatePortfolio(F23,F25,K34:L40,L41)</f>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F34" s="61" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G34" s="61" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H34" s="61" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I34" s="61" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F35" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G35" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H35" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I35" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" s="67"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F36" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G36" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H36" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I36" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="L36" s="67"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F37" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G37" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H37" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I37" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="L37" s="69">
+        <f ca="1">F27</f>
+        <v>43840.470953819444</v>
+      </c>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F38" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G38" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H38" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I38" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F39" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G39" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H39" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I39" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F40" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G40" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H40" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I40" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" s="67"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F41" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G41" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H41" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I41" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" s="86" t="s">
+        <v>330</v>
+      </c>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F42" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G42" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H42" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I42" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F43" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G43" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H43" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I43" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F44" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G44" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H44" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I44" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="63" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="F45" s="64" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="G45" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="H45" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="I45" s="72" t="str">
+        <f ca="1"/>
+        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="9"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="9"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L41:O48"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K15" r:id="rId1" display="https://support.lusid.com/what-is-a-recipe-and-how-are-they-used" xr:uid="{4D8ED4F0-8A6C-4996-842F-24B14025DFBA}"/>
+    <hyperlink ref="K16" r:id="rId2" location="operation/GetAggregationByPortfolio" display="https://docs.lusid.com/ - operation/GetAggregationByPortfolio" xr:uid="{412E0557-FB28-48CD-B1CA-8E7D57B147CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -11548,7 +11815,7 @@
       </c>
       <c r="H29" s="46">
         <f ca="1">NOW()-365</f>
-        <v>43473.456951504631</v>
+        <v>43478.470980439815</v>
       </c>
       <c r="I29" s="39" t="s">
         <v>8</v>
@@ -11843,8 +12110,8 @@
   </sheetPr>
   <dimension ref="B1:Y74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F52:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12642,25 +12909,25 @@
       </c>
       <c r="F52" s="7" t="str">
         <f t="array" ref="F52:L72">_xll.flInstrumentsLookup($E$50,E53:E72)</f>
-        <v>#ERROR: User session not authenticated</v>
+        <v>State</v>
       </c>
       <c r="G52" s="7" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H52" s="6" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Name</v>
       </c>
       <c r="I52" s="7" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>ClientInternal</v>
       </c>
       <c r="J52" s="7" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Ticker</v>
       </c>
       <c r="K52" s="6" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Isin</v>
       </c>
       <c r="L52" s="7" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Figi</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -12671,25 +12938,25 @@
         <v>228</v>
       </c>
       <c r="F53" s="38" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Active</v>
       </c>
       <c r="G53" s="38" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_FVL71B1S</v>
       </c>
       <c r="H53" s="17" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Amazon_Nasdaq_AMZN</v>
       </c>
       <c r="I53" s="17" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>imd_34634534</v>
       </c>
       <c r="J53" s="22" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>AMZN</v>
       </c>
       <c r="K53" s="17" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>US0231351067</v>
       </c>
       <c r="L53" s="17" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>BBG000BVPXP1</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -12700,25 +12967,25 @@
         <v>230</v>
       </c>
       <c r="F54" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Active</v>
       </c>
       <c r="G54" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_U15233F5</v>
       </c>
       <c r="H54" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Apple_Nasdaq_AAPL</v>
       </c>
       <c r="I54" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>imd_35345345</v>
       </c>
       <c r="J54" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>AAPL</v>
       </c>
       <c r="K54" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>US0378331005</v>
       </c>
       <c r="L54" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>BBG000B9XVV8</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -12729,25 +12996,25 @@
         <v>232</v>
       </c>
       <c r="F55" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Active</v>
       </c>
       <c r="G55" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_S29JE7OA</v>
       </c>
       <c r="H55" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>USTreasury_2.00_2021</v>
       </c>
       <c r="I55" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>imd_34535347</v>
       </c>
       <c r="J55" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>T 2 12/31/21</v>
       </c>
       <c r="K55" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>US912828U816</v>
       </c>
       <c r="L55" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>BBG00FN3B5K8</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -12758,25 +13025,25 @@
         <v>234</v>
       </c>
       <c r="F56" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Active</v>
       </c>
       <c r="G56" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_E0FQLDV6</v>
       </c>
       <c r="H56" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>USTreasury_6.875_2025</v>
       </c>
       <c r="I56" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>imd_34534539</v>
       </c>
       <c r="J56" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>T 6.875 08/15/25</v>
       </c>
       <c r="K56" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>US912810EV62</v>
       </c>
       <c r="L56" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>BBG000DQQNJ8</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -12787,25 +13054,25 @@
         <v>266</v>
       </c>
       <c r="F57" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Active</v>
       </c>
       <c r="G57" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_6OSNPL9E</v>
       </c>
       <c r="H57" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>ExpressScripts_NYSE_ESRX</v>
       </c>
       <c r="I57" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>imd_34352311</v>
       </c>
       <c r="J57" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>ESRX</v>
       </c>
       <c r="K57" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>US30219G1085</v>
       </c>
       <c r="L57" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>BBG000C16621</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -12816,25 +13083,25 @@
         <v>268</v>
       </c>
       <c r="F58" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Active</v>
       </c>
       <c r="G58" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_WFWHONCP</v>
       </c>
       <c r="H58" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>TrinityIndustries_NYSE_TRN</v>
       </c>
       <c r="I58" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>imd_34235200</v>
       </c>
       <c r="J58" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>TRN</v>
       </c>
       <c r="K58" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>US8965221091</v>
       </c>
       <c r="L58" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>BBG000BVL406</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -12845,25 +13112,25 @@
         <v>270</v>
       </c>
       <c r="F59" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Active</v>
       </c>
       <c r="G59" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_B3CIX5F3</v>
       </c>
       <c r="H59" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Trex_NYSE_TREX</v>
       </c>
       <c r="I59" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>imd_32423956</v>
       </c>
       <c r="J59" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>TREX</v>
       </c>
       <c r="K59" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>US89531P1057</v>
       </c>
       <c r="L59" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>BBG000BTGM43</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -12874,25 +13141,25 @@
         <v>272</v>
       </c>
       <c r="F60" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Active</v>
       </c>
       <c r="G60" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_J38J7CKW</v>
       </c>
       <c r="H60" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Cigna_NYSE_CI</v>
       </c>
       <c r="I60" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>imd_32452391</v>
       </c>
       <c r="J60" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>CI</v>
       </c>
       <c r="K60" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>US1255091092</v>
       </c>
       <c r="L60" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>BBG00KXXK940</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -12903,25 +13170,25 @@
         <v>274</v>
       </c>
       <c r="F61" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Active</v>
       </c>
       <c r="G61" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>LUID_0U2LEIHT</v>
       </c>
       <c r="H61" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>Arcosa_NYSE_ACA</v>
       </c>
       <c r="I61" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>imd_23423409</v>
       </c>
       <c r="J61" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>ACA</v>
       </c>
       <c r="K61" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>US0396531008</v>
       </c>
       <c r="L61" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v>BBG00JGMWFQ5</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -12930,25 +13197,25 @@
       <c r="D62" s="9"/>
       <c r="E62" s="39"/>
       <c r="F62" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G62" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H62" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I62" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J62" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K62" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L62" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -12957,25 +13224,25 @@
       <c r="D63" s="9"/>
       <c r="E63" s="39"/>
       <c r="F63" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G63" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H63" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I63" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J63" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K63" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L63" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -12984,25 +13251,25 @@
       <c r="D64" s="9"/>
       <c r="E64" s="39"/>
       <c r="F64" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G64" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H64" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I64" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J64" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K64" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L64" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -13011,25 +13278,25 @@
       <c r="D65" s="9"/>
       <c r="E65" s="39"/>
       <c r="F65" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G65" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H65" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I65" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J65" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K65" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L65" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -13038,25 +13305,25 @@
       <c r="D66" s="9"/>
       <c r="E66" s="39"/>
       <c r="F66" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G66" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H66" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I66" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J66" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K66" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L66" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -13065,25 +13332,25 @@
       <c r="D67" s="9"/>
       <c r="E67" s="39"/>
       <c r="F67" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G67" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H67" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I67" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J67" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K67" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L67" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -13092,25 +13359,25 @@
       <c r="D68" s="9"/>
       <c r="E68" s="39"/>
       <c r="F68" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G68" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H68" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I68" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J68" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K68" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L68" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -13119,25 +13386,25 @@
       <c r="D69" s="9"/>
       <c r="E69" s="39"/>
       <c r="F69" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G69" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H69" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I69" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J69" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K69" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L69" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -13146,25 +13413,25 @@
       <c r="D70" s="9"/>
       <c r="E70" s="39"/>
       <c r="F70" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G70" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H70" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I70" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J70" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K70" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L70" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -13173,25 +13440,25 @@
       <c r="D71" s="9"/>
       <c r="E71" s="39"/>
       <c r="F71" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G71" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H71" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I71" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J71" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K71" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L71" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -13200,25 +13467,25 @@
       <c r="D72" s="9"/>
       <c r="E72" s="39"/>
       <c r="F72" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="G72" s="49" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="H72" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="I72" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="J72" s="31" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="K72" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
       <c r="L72" s="30" t="str">
-        <v>#ERROR: User session not authenticated</v>
+        <v/>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -13278,7 +13545,7 @@
   <dimension ref="B1:M104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:M44"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13627,7 +13894,7 @@
       </c>
       <c r="F27" s="46">
         <f ca="1">NOW()-4</f>
-        <v>43834.456938657408</v>
+        <v>43839.470969212962</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>299</v>
@@ -14304,8 +14571,8 @@
   </sheetPr>
   <dimension ref="B1:Q103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14702,7 +14969,7 @@
       </c>
       <c r="F26" s="46">
         <f ca="1">NOW()-4</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>299</v>
@@ -14828,13 +15095,13 @@
       </c>
       <c r="M30" s="57">
         <f ca="1">F26</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
       <c r="P30" s="33" t="str">
         <f ca="1">_xll.flQuotesAdd(F22,E29:O34)</f>
-        <v>Added 4 quote(s) as at time 2020-01-08 10:57:59Z</v>
+        <v>Added 4 quote(s) as at time 2020-01-13 11:18:12Z</v>
       </c>
       <c r="Q30" s="2"/>
     </row>
@@ -14868,7 +15135,7 @@
       </c>
       <c r="M31" s="57">
         <f ca="1">M30</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
@@ -14905,7 +15172,7 @@
       </c>
       <c r="M32" s="57">
         <f ca="1">M31</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
@@ -14942,7 +15209,7 @@
       </c>
       <c r="M33" s="57">
         <f ca="1">M32</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="N33" s="57"/>
       <c r="O33" s="57"/>
@@ -15160,15 +15427,15 @@
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E45" s="87"/>
+      <c r="E45" s="85"/>
       <c r="G45" s="35"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E46" s="85"/>
+      <c r="E46" s="83"/>
       <c r="G46" s="35"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E47" s="85"/>
+      <c r="E47" s="83"/>
       <c r="G47" s="35"/>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.25">
@@ -15434,8 +15701,8 @@
   </sheetPr>
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15841,9 +16108,9 @@
       <c r="E27" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="F27" s="86">
+      <c r="F27" s="84">
         <f ca="1">NOW()-4</f>
-        <v>43834.456918518517</v>
+        <v>43839.470953819444</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -16083,7 +16350,7 @@
       </c>
       <c r="L37" s="69">
         <f ca="1">F27</f>
-        <v>43834.456918518517</v>
+        <v>43839.470953819444</v>
       </c>
       <c r="M37" s="70"/>
       <c r="N37" s="70"/>
@@ -16228,12 +16495,12 @@
       <c r="K41" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="L41" s="81" t="s">
+      <c r="L41" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
@@ -16263,10 +16530,10 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="32"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
@@ -16296,10 +16563,10 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="32"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
@@ -16329,10 +16596,10 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="32"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
@@ -16362,10 +16629,10 @@
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="32"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
@@ -16380,10 +16647,10 @@
       <c r="I46" s="72"/>
       <c r="J46" s="2"/>
       <c r="K46" s="32"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
@@ -16398,10 +16665,10 @@
       <c r="I47" s="72"/>
       <c r="J47" s="2"/>
       <c r="K47" s="32"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -16416,10 +16683,10 @@
       <c r="I48" s="72"/>
       <c r="J48" s="2"/>
       <c r="K48" s="32"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
@@ -16441,137 +16708,6 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E53" t="str">
-        <f t="array" ref="E53:L57">_xll.flInstrumentsLookup("Figi",'Upserting market quotes'!H30:H33)</f>
-        <v>State</v>
-      </c>
-      <c r="F53" t="str">
-        <v>LusidInstrumentId</v>
-      </c>
-      <c r="G53" t="str">
-        <v>Name</v>
-      </c>
-      <c r="H53" t="str">
-        <v>Isin</v>
-      </c>
-      <c r="I53" t="str">
-        <v>Figi</v>
-      </c>
-      <c r="J53" t="str">
-        <v>Ticker</v>
-      </c>
-      <c r="K53" t="str">
-        <v>ClientInternal</v>
-      </c>
-      <c r="L53" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E54" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F54" t="str">
-        <v>LUID_FVL71B1S</v>
-      </c>
-      <c r="G54" t="str">
-        <v>Amazon_Nasdaq_AMZN</v>
-      </c>
-      <c r="H54" t="str">
-        <v>US0231351067</v>
-      </c>
-      <c r="I54" t="str">
-        <v>BBG000BVPXP1</v>
-      </c>
-      <c r="J54" t="str">
-        <v>AMZN</v>
-      </c>
-      <c r="K54" t="str">
-        <v>imd_34634534</v>
-      </c>
-      <c r="L54" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E55" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F55" t="str">
-        <v>LUID_U15233F5</v>
-      </c>
-      <c r="G55" t="str">
-        <v>Apple_Nasdaq_AAPL</v>
-      </c>
-      <c r="H55" t="str">
-        <v>US0378331005</v>
-      </c>
-      <c r="I55" t="str">
-        <v>BBG000B9XVV8</v>
-      </c>
-      <c r="J55" t="str">
-        <v>AAPL</v>
-      </c>
-      <c r="K55" t="str">
-        <v>imd_35345345</v>
-      </c>
-      <c r="L55" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E56" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F56" t="str">
-        <v>LUID_S29JE7OA</v>
-      </c>
-      <c r="G56" t="str">
-        <v>USTreasury_2.00_2021</v>
-      </c>
-      <c r="H56" t="str">
-        <v>US912828U816</v>
-      </c>
-      <c r="I56" t="str">
-        <v>BBG00FN3B5K8</v>
-      </c>
-      <c r="J56" t="str">
-        <v>T 2 12/31/21</v>
-      </c>
-      <c r="K56" t="str">
-        <v>imd_34535347</v>
-      </c>
-      <c r="L56" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E57" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F57" t="str">
-        <v>LUID_E0FQLDV6</v>
-      </c>
-      <c r="G57" t="str">
-        <v>USTreasury_6.875_2025</v>
-      </c>
-      <c r="H57" t="str">
-        <v>US912810EV62</v>
-      </c>
-      <c r="I57" t="str">
-        <v>BBG000DQQNJ8</v>
-      </c>
-      <c r="J57" t="str">
-        <v>T 6.875 08/15/25</v>
-      </c>
-      <c r="K57" t="str">
-        <v>imd_34534539</v>
-      </c>
-      <c r="L57" t="str">
-        <v/>
-      </c>
-    </row>
     <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16589,1181 +16725,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EF1A91-8853-4B0C-A8A3-E9399302BA16}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B1:R72"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" customWidth="1"/>
-    <col min="3" max="3" width="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="K15" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="K16" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="2:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="2:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="F27" s="86">
-        <f ca="1">NOW()-3-61/1440</f>
-        <v>43835.414557407406</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="2:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
-      <c r="C32" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="61" t="str">
-        <f t="array" ref="E34:I45" ca="1">_xll.flAggregatePortfolio(F23,F25,K34:L40,L41)</f>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F34" s="61" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G34" s="61" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H34" s="61" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I34" s="61" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="L34" s="65" t="s">
-        <v>306</v>
-      </c>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F35" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G35" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H35" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I35" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="L35" s="67"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F36" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G36" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H36" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I36" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="L36" s="67"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F37" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G37" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H37" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I37" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="L37" s="69">
-        <f ca="1">F27</f>
-        <v>43835.414557407406</v>
-      </c>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F38" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G38" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H38" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I38" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="L38" s="67" t="s">
-        <v>358</v>
-      </c>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F39" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G39" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H39" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I39" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="L39" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F40" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G40" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H40" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I40" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="L40" s="67"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F41" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G41" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H41" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I41" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="L41" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F42" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G42" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H42" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I42" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F43" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G43" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H43" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I43" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F44" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G44" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H44" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I44" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="63" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="F45" s="64" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="G45" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="H45" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="I45" s="72" t="str">
-        <f ca="1"/>
-        <v>#ERROR: Failed to find or create market data item [Analytic LUID_FVL71B1S]. This occurred because LUID_FVL71B1S is not in the loaded Analytics set. Implies incorrect dependencies or missing data for time.</v>
-      </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E53" t="str">
-        <f t="array" ref="E53:L57">_xll.flInstrumentsLookup("Figi",'Upserting market quotes'!H30:H33)</f>
-        <v>State</v>
-      </c>
-      <c r="F53" t="str">
-        <v>LusidInstrumentId</v>
-      </c>
-      <c r="G53" t="str">
-        <v>Name</v>
-      </c>
-      <c r="H53" t="str">
-        <v>Isin</v>
-      </c>
-      <c r="I53" t="str">
-        <v>Figi</v>
-      </c>
-      <c r="J53" t="str">
-        <v>Ticker</v>
-      </c>
-      <c r="K53" t="str">
-        <v>ClientInternal</v>
-      </c>
-      <c r="L53" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E54" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F54" t="str">
-        <v>LUID_FVL71B1S</v>
-      </c>
-      <c r="G54" t="str">
-        <v>Amazon_Nasdaq_AMZN</v>
-      </c>
-      <c r="H54" t="str">
-        <v>US0231351067</v>
-      </c>
-      <c r="I54" t="str">
-        <v>BBG000BVPXP1</v>
-      </c>
-      <c r="J54" t="str">
-        <v>AMZN</v>
-      </c>
-      <c r="K54" t="str">
-        <v>imd_34634534</v>
-      </c>
-      <c r="L54" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E55" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F55" t="str">
-        <v>LUID_U15233F5</v>
-      </c>
-      <c r="G55" t="str">
-        <v>Apple_Nasdaq_AAPL</v>
-      </c>
-      <c r="H55" t="str">
-        <v>US0378331005</v>
-      </c>
-      <c r="I55" t="str">
-        <v>BBG000B9XVV8</v>
-      </c>
-      <c r="J55" t="str">
-        <v>AAPL</v>
-      </c>
-      <c r="K55" t="str">
-        <v>imd_35345345</v>
-      </c>
-      <c r="L55" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E56" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F56" t="str">
-        <v>LUID_S29JE7OA</v>
-      </c>
-      <c r="G56" t="str">
-        <v>USTreasury_2.00_2021</v>
-      </c>
-      <c r="H56" t="str">
-        <v>US912828U816</v>
-      </c>
-      <c r="I56" t="str">
-        <v>BBG00FN3B5K8</v>
-      </c>
-      <c r="J56" t="str">
-        <v>T 2 12/31/21</v>
-      </c>
-      <c r="K56" t="str">
-        <v>imd_34535347</v>
-      </c>
-      <c r="L56" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E57" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F57" t="str">
-        <v>LUID_E0FQLDV6</v>
-      </c>
-      <c r="G57" t="str">
-        <v>USTreasury_6.875_2025</v>
-      </c>
-      <c r="H57" t="str">
-        <v>US912810EV62</v>
-      </c>
-      <c r="I57" t="str">
-        <v>BBG000DQQNJ8</v>
-      </c>
-      <c r="J57" t="str">
-        <v>T 6.875 08/15/25</v>
-      </c>
-      <c r="K57" t="str">
-        <v>imd_34534539</v>
-      </c>
-      <c r="L57" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L41:O48"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K15" r:id="rId1" display="https://support.lusid.com/what-is-a-recipe-and-how-are-they-used" xr:uid="{8D941EC8-E550-4D14-8A9D-22BFA46266AD}"/>
-    <hyperlink ref="K16" r:id="rId2" location="operation/GetAggregationByPortfolio" display="https://docs.lusid.com/ - operation/GetAggregationByPortfolio" xr:uid="{D442FBB9-F1F3-4E70-9B08-9A48CD6285D5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFE621F-2E68-4C2C-AE26-110005778896}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18597,7 +17565,7 @@
       <c r="K55" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="21">
+  <dataValidations disablePrompts="1" count="21">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="LifeTime" sqref="K28" xr:uid="{669C871B-FABB-406D-A868-77F1F15585AF}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DataTypeId" sqref="J28" xr:uid="{02F9DD62-D769-4DDA-8686-F3AB186ABB93}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DisplayName" sqref="I28" xr:uid="{6CDB84A8-763F-4C1E-A198-12B9D1826819}"/>
@@ -18630,15 +17598,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961C6763-2806-4D3B-92B6-B78B0891A089}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:R79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19034,7 +18002,7 @@
       </c>
       <c r="F27" s="59">
         <f ca="1">'Upserting market quotes'!F26</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -19254,7 +18222,7 @@
       </c>
       <c r="L36" s="69">
         <f ca="1">F27</f>
-        <v>43834.456926388892</v>
+        <v>43839.470956481484</v>
       </c>
       <c r="M36" s="70"/>
       <c r="N36" s="70"/>
@@ -19399,12 +18367,12 @@
       <c r="K40" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="L40" s="81" t="s">
+      <c r="L40" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
@@ -19434,10 +18402,10 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="32"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
@@ -19467,10 +18435,10 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="32"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
@@ -19500,10 +18468,10 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="32"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
@@ -19533,10 +18501,10 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="32"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
@@ -19551,10 +18519,10 @@
       <c r="I45" s="72"/>
       <c r="J45" s="2"/>
       <c r="K45" s="32"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
@@ -19569,10 +18537,10 @@
       <c r="I46" s="72"/>
       <c r="J46" s="2"/>
       <c r="K46" s="32"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
@@ -19587,10 +18555,10 @@
       <c r="I47" s="72"/>
       <c r="J47" s="2"/>
       <c r="K47" s="32"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -19807,7 +18775,7 @@
       </c>
       <c r="F64" s="46">
         <f ca="1">NOW()-4</f>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>299</v>
@@ -19935,13 +18903,13 @@
       </c>
       <c r="M68" s="57">
         <f ca="1">F64</f>
-        <v>43834.456930324071</v>
+        <v>43839.470962268519</v>
       </c>
       <c r="N68" s="33"/>
       <c r="O68" s="33"/>
       <c r="P68" s="73" t="str">
         <f ca="1">_xll.flQuotesAdd(F62,E67:O72)</f>
-        <v>Added 1 quote(s) as at time 2020-01-08 10:57:59Z</v>
+        <v>Added 1 quote(s) as at time 2020-01-13 11:18:12Z</v>
       </c>
       <c r="Q68" s="2"/>
     </row>
@@ -20175,22 +19143,830 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8B65CA-80A9-45EB-9343-6E81B58B3E11}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="20" t="e">
+        <f t="array" aca="1" ref="E27" ca="1">_xll.fbnPortfoliosAdd_Template()</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="H29" s="46">
+        <f ca="1">NOW()-365</f>
+        <v>43478.470962268519</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="53"/>
+      <c r="K29" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="73" t="str">
+        <f t="array" aca="1" ref="M29:M33" ca="1">_xll.flPortfoliosAdd(F25,E28:L33)</f>
+        <v>Entity already exists</v>
+      </c>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="H30" s="46">
+        <f ca="1">NOW()-365</f>
+        <v>43478.470962268519</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="73" t="str">
+        <f ca="1"/>
+        <v>Entity already exists</v>
+      </c>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="H31" s="46">
+        <f ca="1">NOW()-365</f>
+        <v>43478.470962268519</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="53"/>
+      <c r="K31" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="24"/>
+      <c r="M31" s="73" t="str">
+        <f ca="1"/>
+        <v>Entity already exists</v>
+      </c>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="9">
+        <v>4</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="H32" s="46">
+        <f ca="1">NOW()-365</f>
+        <v>43478.470962268519</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="53"/>
+      <c r="K32" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="24"/>
+      <c r="M32" s="73" t="str">
+        <f ca="1"/>
+        <v>Entity already exists</v>
+      </c>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="9">
+        <v>5</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="H33" s="46">
+        <f ca="1">NOW()-365</f>
+        <v>43478.470962268519</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="53"/>
+      <c r="K33" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="L33" s="24"/>
+      <c r="M33" s="73" t="str">
+        <f ca="1"/>
+        <v>Entity already exists</v>
+      </c>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="9">
+        <v>6</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="9">
+        <v>7</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="9">
+        <v>8</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="9">
+        <v>9</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="9">
+        <v>10</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Base Currency" sqref="L28:M28" xr:uid="{6D411331-58BD-4601-AF79-D42E1E359CA0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Created" sqref="K28" xr:uid="{574AD2A8-D326-40FB-9BEE-C0DD62B34725}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Description" sqref="J28" xr:uid="{A17D583A-FB53-467A-9042-C80CBF3CA292}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Display Name" sqref="I28" xr:uid="{D88040F2-8D63-41C4-8C5C-7898E33F132D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sub-Holding Keys" sqref="H28" xr:uid="{21F65EE0-D128-4684-8D1E-A37063EB25FF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Accounting Method" sqref="G28" xr:uid="{452380A9-1E65-45AA-A53B-3412ED339AA3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Corporate Action Source" sqref="F28" xr:uid="{A57C0CE8-1B54-41C9-9C2C-67F069D2202C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="E28 E42:H45" xr:uid="{C953DDE1-26C7-4D22-AC28-FA39A8515BA4}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED7FFFC81E40E242B1541D0602C582EC" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="392b4aa86b54b1b44668db5e449e18a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43d77729-b3b5-43d2-8eeb-4fba98ba19cc" xmlns:ns4="bfb7c3a1-8446-4cdf-8803-34a87e3df632" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da7639e5c2e6b11c3a3b85f93dd9e28c" ns3:_="" ns4:_="">
     <xsd:import namespace="43d77729-b3b5-43d2-8eeb-4fba98ba19cc"/>
@@ -20361,10 +20137,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE340CE-0FB2-490C-8292-BC185D93D393}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43d77729-b3b5-43d2-8eeb-4fba98ba19cc"/>
+    <ds:schemaRef ds:uri="bfb7c3a1-8446-4cdf-8803-34a87e3df632"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20387,20 +20189,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE340CE-0FB2-490C-8292-BC185D93D393}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43d77729-b3b5-43d2-8eeb-4fba98ba19cc"/>
-    <ds:schemaRef ds:uri="bfb7c3a1-8446-4cdf-8803-34a87e3df632"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>